--- a/kgparserWeb/src/main/webapp/xlsx/voc-referats-top-by-races-count.xlsx
+++ b/kgparserWeb/src/main/webapp/xlsx/voc-referats-top-by-races-count.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="945">
   <si>
     <t>#</t>
   </si>
@@ -1346,16 +1346,7 @@
     <t>2 ч. 35 мин. 36 сек.</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>загогулина</t>
-  </si>
-  <si>
-    <t>4 ч. 41 мин. 8 сек.</t>
-  </si>
-  <si>
-    <t>157–158</t>
+    <t>156–157</t>
   </si>
   <si>
     <t>KalinaMalina</t>
@@ -1370,7 +1361,7 @@
     <t>6 ч. 10 мин. 31 сек.</t>
   </si>
   <si>
-    <t>159–160</t>
+    <t>158–159</t>
   </si>
   <si>
     <t>_Сайман_</t>
@@ -1385,25 +1376,25 @@
     <t>6 ч. 31 мин. 0 сек.</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>АкунаМатата</t>
+  </si>
+  <si>
+    <t>3 ч. 49 мин. 5 сек.</t>
+  </si>
+  <si>
     <t>161</t>
   </si>
   <si>
-    <t>АкунаМатата</t>
-  </si>
-  <si>
-    <t>3 ч. 49 мин. 5 сек.</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
     <t>alensw4</t>
   </si>
   <si>
     <t>7 ч. 21 мин. 31 сек.</t>
   </si>
   <si>
-    <t>163–164</t>
+    <t>162–163</t>
   </si>
   <si>
     <t>plytishka</t>
@@ -1418,7 +1409,7 @@
     <t>3 ч. 39 мин. 53 сек.</t>
   </si>
   <si>
-    <t>165–166</t>
+    <t>164–165</t>
   </si>
   <si>
     <t>_Daemon_</t>
@@ -1433,34 +1424,34 @@
     <t>7 ч. 2 мин. 32 сек.</t>
   </si>
   <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>СераБелка</t>
+  </si>
+  <si>
+    <t>4 ч. 27 мин. 38 сек.</t>
+  </si>
+  <si>
     <t>167</t>
   </si>
   <si>
-    <t>СераБелка</t>
-  </si>
-  <si>
-    <t>4 ч. 27 мин. 38 сек.</t>
+    <t>Книголюб</t>
+  </si>
+  <si>
+    <t>4 ч. 27 мин. 39 сек.</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>Книголюб</t>
-  </si>
-  <si>
-    <t>4 ч. 27 мин. 39 сек.</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>Pelagiad</t>
   </si>
   <si>
     <t>2 ч. 35 мин. 3 сек.</t>
   </si>
   <si>
-    <t>170–171</t>
+    <t>169–170</t>
   </si>
   <si>
     <t>Nuria</t>
@@ -1475,7 +1466,7 @@
     <t>5 ч. 2 мин. 33 сек.</t>
   </si>
   <si>
-    <t>172–173</t>
+    <t>171–172</t>
   </si>
   <si>
     <t>Wiiseacre</t>
@@ -1490,34 +1481,34 @@
     <t>2 ч. 42 мин. 56 сек.</t>
   </si>
   <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>wizmon</t>
+  </si>
+  <si>
+    <t>4 ч. 5 мин. 23 сек.</t>
+  </si>
+  <si>
     <t>174</t>
   </si>
   <si>
-    <t>wizmon</t>
-  </si>
-  <si>
-    <t>4 ч. 5 мин. 23 сек.</t>
+    <t>SilverNeko</t>
+  </si>
+  <si>
+    <t>3 ч. 48 мин. 22 сек.</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>SilverNeko</t>
-  </si>
-  <si>
-    <t>3 ч. 48 мин. 22 сек.</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
     <t>ufcntkkj</t>
   </si>
   <si>
     <t>5 ч. 48 мин. 45 сек.</t>
   </si>
   <si>
-    <t>177–178</t>
+    <t>176–177</t>
   </si>
   <si>
     <t>Шмакодявка</t>
@@ -1532,52 +1523,52 @@
     <t>2 ч. 12 мин. 58 сек.</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>2 ч. 26 мин. 37 сек.</t>
+  </si>
+  <si>
     <t>179</t>
   </si>
   <si>
-    <t>Wonder</t>
-  </si>
-  <si>
-    <t>2 ч. 26 мин. 37 сек.</t>
+    <t>Wassja</t>
+  </si>
+  <si>
+    <t>3 ч. 8 мин. 27 сек.</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>Wassja</t>
-  </si>
-  <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>LukkaBrazzi</t>
+  </si>
+  <si>
+    <t>4 ч. 33 мин. 38 сек.</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>LukkaBrazzi</t>
-  </si>
-  <si>
-    <t>4 ч. 33 мин. 38 сек.</t>
+    <t>PROcent</t>
+  </si>
+  <si>
+    <t>2 ч. 9 мин. 26 сек.</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>PROcent</t>
-  </si>
-  <si>
-    <t>2 ч. 9 мин. 26 сек.</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
     <t>_ulanochka</t>
   </si>
   <si>
     <t>4 ч. 0 мин. 59 сек.</t>
   </si>
   <si>
-    <t>184–185</t>
+    <t>183–184</t>
   </si>
   <si>
     <t>Рустамко</t>
@@ -1592,7 +1583,7 @@
     <t>3 ч. 34 мин. 26 сек.</t>
   </si>
   <si>
-    <t>186–187</t>
+    <t>185–186</t>
   </si>
   <si>
     <t>a_inc</t>
@@ -1607,7 +1598,7 @@
     <t>4 ч. 20 мин. 36 сек.</t>
   </si>
   <si>
-    <t>188</t>
+    <t>187</t>
   </si>
   <si>
     <t>Jovany</t>
@@ -1616,7 +1607,7 @@
     <t>2 ч. 26 мин. 21 сек.</t>
   </si>
   <si>
-    <t>189–192</t>
+    <t>188–191</t>
   </si>
   <si>
     <t>тощий_кабан</t>
@@ -1643,7 +1634,7 @@
     <t>2 ч. 46 мин. 53 сек.</t>
   </si>
   <si>
-    <t>193–194</t>
+    <t>192–193</t>
   </si>
   <si>
     <t>Denis-F</t>
@@ -1658,7 +1649,7 @@
     <t>2 ч. 36 мин. 39 сек.</t>
   </si>
   <si>
-    <t>195</t>
+    <t>194</t>
   </si>
   <si>
     <t>undoundo</t>
@@ -1667,7 +1658,7 @@
     <t>4 ч. 43 мин. 45 сек.</t>
   </si>
   <si>
-    <t>196–199</t>
+    <t>195–198</t>
   </si>
   <si>
     <t>tararamspb</t>
@@ -1691,7 +1682,7 @@
     <t>3 ч. 10 мин. 6 сек.</t>
   </si>
   <si>
-    <t>200</t>
+    <t>199</t>
   </si>
   <si>
     <t>oyasumi</t>
@@ -1700,7 +1691,7 @@
     <t>2 ч. 39 мин. 41 сек.</t>
   </si>
   <si>
-    <t>201–202</t>
+    <t>200–201</t>
   </si>
   <si>
     <t>pa26</t>
@@ -1715,7 +1706,7 @@
     <t>4 ч. 6 мин. 59 сек.</t>
   </si>
   <si>
-    <t>203–204</t>
+    <t>202–203</t>
   </si>
   <si>
     <t>bkozhaev</t>
@@ -1730,7 +1721,7 @@
     <t>2 ч. 44 мин. 38 сек.</t>
   </si>
   <si>
-    <t>205–206</t>
+    <t>204–205</t>
   </si>
   <si>
     <t>_nikki_</t>
@@ -1745,7 +1736,7 @@
     <t>6 ч. 15 мин. 24 сек.</t>
   </si>
   <si>
-    <t>207</t>
+    <t>206</t>
   </si>
   <si>
     <t>Катушка</t>
@@ -1754,7 +1745,7 @@
     <t>3 ч. 27 мин. 41 сек.</t>
   </si>
   <si>
-    <t>208–209</t>
+    <t>207–208</t>
   </si>
   <si>
     <t>YuranTM</t>
@@ -1769,7 +1760,7 @@
     <t>3 ч. 7 мин. 42 сек.</t>
   </si>
   <si>
-    <t>210–211</t>
+    <t>209–210</t>
   </si>
   <si>
     <t>_Жемчужинка_</t>
@@ -1784,76 +1775,76 @@
     <t>2 ч. 47 мин. 29 сек.</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>347122834</t>
+  </si>
+  <si>
+    <t>3 ч. 48 мин. 26 сек.</t>
+  </si>
+  <si>
     <t>212</t>
   </si>
   <si>
-    <t>347122834</t>
-  </si>
-  <si>
-    <t>3 ч. 48 мин. 26 сек.</t>
+    <t>Сонь</t>
+  </si>
+  <si>
+    <t>2 ч. 40 мин. 52 сек.</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>Сонь</t>
-  </si>
-  <si>
-    <t>2 ч. 40 мин. 52 сек.</t>
+    <t>Debugger</t>
+  </si>
+  <si>
+    <t>2 ч. 37 мин. 24 сек.</t>
   </si>
   <si>
     <t>214</t>
   </si>
   <si>
-    <t>Debugger</t>
-  </si>
-  <si>
-    <t>2 ч. 37 мин. 24 сек.</t>
+    <t>sneg_jr</t>
+  </si>
+  <si>
+    <t>1 ч. 55 мин. 43 сек.</t>
   </si>
   <si>
     <t>215</t>
   </si>
   <si>
-    <t>sneg_jr</t>
-  </si>
-  <si>
-    <t>1 ч. 55 мин. 43 сек.</t>
+    <t>Аурика</t>
   </si>
   <si>
     <t>216</t>
   </si>
   <si>
-    <t>Аурика</t>
+    <t>машина</t>
+  </si>
+  <si>
+    <t>2 ч. 15 мин. 31 сек.</t>
   </si>
   <si>
     <t>217</t>
   </si>
   <si>
-    <t>машина</t>
-  </si>
-  <si>
-    <t>2 ч. 15 мин. 31 сек.</t>
+    <t>Mask2017</t>
+  </si>
+  <si>
+    <t>3 ч. 53 мин. 28 сек.</t>
   </si>
   <si>
     <t>218</t>
   </si>
   <si>
-    <t>Mask2017</t>
-  </si>
-  <si>
-    <t>3 ч. 53 мин. 28 сек.</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>Nadusha12</t>
   </si>
   <si>
     <t>8 ч. 5 мин. 53 сек.</t>
   </si>
   <si>
-    <t>220–221</t>
+    <t>219–220</t>
   </si>
   <si>
     <t>Гонибалл</t>
@@ -1868,7 +1859,7 @@
     <t>2 ч. 42 мин. 9 сек.</t>
   </si>
   <si>
-    <t>222</t>
+    <t>221</t>
   </si>
   <si>
     <t>Клавишник</t>
@@ -1877,7 +1868,7 @@
     <t>2 ч. 46 мин. 7 сек.</t>
   </si>
   <si>
-    <t>223–224</t>
+    <t>222–223</t>
   </si>
   <si>
     <t>saratovlawyer</t>
@@ -1892,34 +1883,34 @@
     <t>2 ч. 33 мин. 11 сек.</t>
   </si>
   <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Thrust_SSC</t>
+  </si>
+  <si>
+    <t>3 ч. 57 мин. 56 сек.</t>
+  </si>
+  <si>
     <t>225</t>
   </si>
   <si>
-    <t>Thrust_SSC</t>
-  </si>
-  <si>
-    <t>3 ч. 57 мин. 56 сек.</t>
+    <t>fluffycat</t>
+  </si>
+  <si>
+    <t>1 ч. 52 мин. 13 сек.</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
-    <t>fluffycat</t>
-  </si>
-  <si>
-    <t>1 ч. 52 мин. 13 сек.</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
     <t>Мальтунг2</t>
   </si>
   <si>
     <t>3 ч. 37 мин. 18 сек.</t>
   </si>
   <si>
-    <t>228–229</t>
+    <t>227–228</t>
   </si>
   <si>
     <t>amt</t>
@@ -1934,7 +1925,7 @@
     <t>2 ч. 23 мин. 20 сек.</t>
   </si>
   <si>
-    <t>230–231</t>
+    <t>229–230</t>
   </si>
   <si>
     <t>Speedyman</t>
@@ -1949,7 +1940,7 @@
     <t>2 ч. 18 мин. 49 сек.</t>
   </si>
   <si>
-    <t>232–233</t>
+    <t>231–232</t>
   </si>
   <si>
     <t>Рон</t>
@@ -1964,7 +1955,7 @@
     <t>1 ч. 56 мин. 36 сек.</t>
   </si>
   <si>
-    <t>234–236</t>
+    <t>233–235</t>
   </si>
   <si>
     <t>Abu_Abu</t>
@@ -1985,25 +1976,25 @@
     <t>3 ч. 47 мин. 13 сек.</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>2 ч. 16 мин. 31 сек.</t>
+  </si>
+  <si>
     <t>237</t>
   </si>
   <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>2 ч. 16 мин. 31 сек.</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
     <t>Ирдэнс</t>
   </si>
   <si>
     <t>2 ч. 50 мин. 41 сек.</t>
   </si>
   <si>
-    <t>239–240</t>
+    <t>238–239</t>
   </si>
   <si>
     <t>Lliss</t>
@@ -2018,7 +2009,7 @@
     <t>1 ч. 55 мин. 24 сек.</t>
   </si>
   <si>
-    <t>241–244</t>
+    <t>240–243</t>
   </si>
   <si>
     <t>Тыкальщик</t>
@@ -2045,7 +2036,7 @@
     <t>2 ч. 36 мин. 29 сек.</t>
   </si>
   <si>
-    <t>245–246</t>
+    <t>244–245</t>
   </si>
   <si>
     <t>_NoMaD_</t>
@@ -2060,7 +2051,7 @@
     <t>2 ч. 13 мин. 7 сек.</t>
   </si>
   <si>
-    <t>247–252</t>
+    <t>246–251</t>
   </si>
   <si>
     <t>Chedi</t>
@@ -2099,7 +2090,7 @@
     <t>2 ч. 37 мин. 23 сек.</t>
   </si>
   <si>
-    <t>253–254</t>
+    <t>252–253</t>
   </si>
   <si>
     <t>su-35</t>
@@ -2114,7 +2105,7 @@
     <t>2 ч. 2 мин. 39 сек.</t>
   </si>
   <si>
-    <t>255–258</t>
+    <t>254–257</t>
   </si>
   <si>
     <t>Френдли</t>
@@ -2141,7 +2132,7 @@
     <t>1 ч. 50 мин. 7 сек.</t>
   </si>
   <si>
-    <t>259–260</t>
+    <t>258–259</t>
   </si>
   <si>
     <t>Dallas4</t>
@@ -2156,7 +2147,7 @@
     <t>2 ч. 47 мин. 42 сек.</t>
   </si>
   <si>
-    <t>261–263</t>
+    <t>260–262</t>
   </si>
   <si>
     <t>ckandy</t>
@@ -2177,7 +2168,7 @@
     <t>2 ч. 46 мин. 29 сек.</t>
   </si>
   <si>
-    <t>264–267</t>
+    <t>263–266</t>
   </si>
   <si>
     <t>Геос</t>
@@ -2204,7 +2195,7 @@
     <t>2 ч. 13 мин. 12 сек.</t>
   </si>
   <si>
-    <t>268–270</t>
+    <t>267–269</t>
   </si>
   <si>
     <t>Jerichoni</t>
@@ -2225,34 +2216,34 @@
     <t>3 ч. 17 мин. 53 сек.</t>
   </si>
   <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>Zippin</t>
+  </si>
+  <si>
+    <t>1 ч. 53 мин. 12 сек.</t>
+  </si>
+  <si>
     <t>271</t>
   </si>
   <si>
-    <t>Zippin</t>
-  </si>
-  <si>
-    <t>1 ч. 53 мин. 12 сек.</t>
+    <t>svetophor</t>
+  </si>
+  <si>
+    <t>3 ч. 49 мин. 8 сек.</t>
   </si>
   <si>
     <t>272</t>
   </si>
   <si>
-    <t>svetophor</t>
-  </si>
-  <si>
-    <t>3 ч. 49 мин. 8 сек.</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
     <t>tinto</t>
   </si>
   <si>
     <t>2 ч. 46 мин. 9 сек.</t>
   </si>
   <si>
-    <t>274–276</t>
+    <t>273–275</t>
   </si>
   <si>
     <t>чебупеля</t>
@@ -2273,7 +2264,7 @@
     <t>2 ч. 54 мин. 22 сек.</t>
   </si>
   <si>
-    <t>277–280</t>
+    <t>276–279</t>
   </si>
   <si>
     <t>jriynik2312</t>
@@ -2297,7 +2288,7 @@
     <t>2 ч. 10 мин. 8 сек.</t>
   </si>
   <si>
-    <t>281–282</t>
+    <t>280–281</t>
   </si>
   <si>
     <t>Voronov</t>
@@ -2312,7 +2303,7 @@
     <t>1 ч. 30 мин. 52 сек.</t>
   </si>
   <si>
-    <t>283</t>
+    <t>282</t>
   </si>
   <si>
     <t>Tuma</t>
@@ -2321,7 +2312,7 @@
     <t>1 ч. 54 мин. 39 сек.</t>
   </si>
   <si>
-    <t>284–286</t>
+    <t>283–285</t>
   </si>
   <si>
     <t>Alars</t>
@@ -2342,7 +2333,7 @@
     <t>2 ч. 2 мин. 58 сек.</t>
   </si>
   <si>
-    <t>287–289</t>
+    <t>286–288</t>
   </si>
   <si>
     <t>Traumstaub</t>
@@ -2363,7 +2354,7 @@
     <t>2 ч. 0 мин. 8 сек.</t>
   </si>
   <si>
-    <t>290</t>
+    <t>289</t>
   </si>
   <si>
     <t>вовик58</t>
@@ -2372,7 +2363,7 @@
     <t>2 ч. 49 мин. 41 сек.</t>
   </si>
   <si>
-    <t>291–293</t>
+    <t>290–292</t>
   </si>
   <si>
     <t>Antokoff</t>
@@ -2393,7 +2384,7 @@
     <t>2 ч. 40 мин. 49 сек.</t>
   </si>
   <si>
-    <t>294–295</t>
+    <t>293–294</t>
   </si>
   <si>
     <t>Doxly</t>
@@ -2408,7 +2399,7 @@
     <t>1 ч. 42 мин. 38 сек.</t>
   </si>
   <si>
-    <t>296–298</t>
+    <t>295–297</t>
   </si>
   <si>
     <t>Novatin</t>
@@ -2429,7 +2420,7 @@
     <t>1 ч. 40 мин. 25 сек.</t>
   </si>
   <si>
-    <t>299–301</t>
+    <t>298–299</t>
   </si>
   <si>
     <t>selinvi55</t>
@@ -2438,19 +2429,13 @@
     <t>7 ч. 37 мин. 24 сек.</t>
   </si>
   <si>
-    <t>BrightmaniaQue</t>
-  </si>
-  <si>
-    <t>1 ч. 57 мин. 18 сек.</t>
-  </si>
-  <si>
     <t>Michelik</t>
   </si>
   <si>
     <t>3 ч. 28 мин. 37 сек.</t>
   </si>
   <si>
-    <t>302–308</t>
+    <t>300–306</t>
   </si>
   <si>
     <t>Just_so_Lex</t>
@@ -2495,7 +2480,7 @@
     <t>2 ч. 13 мин. 18 сек.</t>
   </si>
   <si>
-    <t>309–311</t>
+    <t>307–309</t>
   </si>
   <si>
     <t>deafbeard</t>
@@ -2516,7 +2501,7 @@
     <t>2 ч. 16 мин. 49 сек.</t>
   </si>
   <si>
-    <t>312–313</t>
+    <t>310–311</t>
   </si>
   <si>
     <t>PerfectPixel</t>
@@ -2531,13 +2516,7 @@
     <t>2 ч. 47 мин. 31 сек.</t>
   </si>
   <si>
-    <t>314–318</t>
-  </si>
-  <si>
-    <t>Сергей-</t>
-  </si>
-  <si>
-    <t>3 ч. 6 мин. 14 сек.</t>
+    <t>312–315</t>
   </si>
   <si>
     <t>zdanhik</t>
@@ -2564,7 +2543,7 @@
     <t>2 ч. 1 мин. 28 сек.</t>
   </si>
   <si>
-    <t>319–321</t>
+    <t>316–318</t>
   </si>
   <si>
     <t>nikmaron</t>
@@ -2585,7 +2564,7 @@
     <t>1 ч. 43 мин. 7 сек.</t>
   </si>
   <si>
-    <t>322</t>
+    <t>319</t>
   </si>
   <si>
     <t>lusisha</t>
@@ -2594,7 +2573,7 @@
     <t>3 ч. 38 мин. 20 сек.</t>
   </si>
   <si>
-    <t>323</t>
+    <t>320</t>
   </si>
   <si>
     <t>Соточка</t>
@@ -2603,7 +2582,7 @@
     <t>2 ч. 54 мин. 31 сек.</t>
   </si>
   <si>
-    <t>324</t>
+    <t>321</t>
   </si>
   <si>
     <t>Биолог467</t>
@@ -2612,7 +2591,7 @@
     <t>3 ч. 56 мин. 8 сек.</t>
   </si>
   <si>
-    <t>325–326</t>
+    <t>322–323</t>
   </si>
   <si>
     <t>NineFingers</t>
@@ -2627,7 +2606,7 @@
     <t>3 ч. 15 мин. 25 сек.</t>
   </si>
   <si>
-    <t>327–330</t>
+    <t>324–327</t>
   </si>
   <si>
     <t>inexpert</t>
@@ -2654,7 +2633,7 @@
     <t>1 ч. 45 мин. 34 сек.</t>
   </si>
   <si>
-    <t>331–335</t>
+    <t>328–332</t>
   </si>
   <si>
     <t>Fizikello</t>
@@ -2687,7 +2666,7 @@
     <t>2 ч. 33 мин. 24 сек.</t>
   </si>
   <si>
-    <t>336</t>
+    <t>333</t>
   </si>
   <si>
     <t>Интересующийся</t>
@@ -2696,7 +2675,7 @@
     <t>2 ч. 24 мин. 57 сек.</t>
   </si>
   <si>
-    <t>337–340</t>
+    <t>334–337</t>
   </si>
   <si>
     <t>VQV</t>
@@ -2723,7 +2702,7 @@
     <t>2 ч. 19 мин. 12 сек.</t>
   </si>
   <si>
-    <t>341–344</t>
+    <t>338–341</t>
   </si>
   <si>
     <t>Cat_Lady</t>
@@ -2750,7 +2729,7 @@
     <t>2 ч. 46 мин. 22 сек.</t>
   </si>
   <si>
-    <t>345–346</t>
+    <t>342–343</t>
   </si>
   <si>
     <t>Flam91</t>
@@ -2765,7 +2744,7 @@
     <t>1 ч. 36 мин. 30 сек.</t>
   </si>
   <si>
-    <t>347–351</t>
+    <t>344–348</t>
   </si>
   <si>
     <t>smbody</t>
@@ -2798,7 +2777,7 @@
     <t>1 ч. 29 мин. 24 сек.</t>
   </si>
   <si>
-    <t>352–356</t>
+    <t>349–353</t>
   </si>
   <si>
     <t>FoxSirius</t>
@@ -2831,7 +2810,7 @@
     <t>1 ч. 40 мин. 50 сек.</t>
   </si>
   <si>
-    <t>357–362</t>
+    <t>354–359</t>
   </si>
   <si>
     <t>dogs_life</t>
@@ -3452,7 +3431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J363"/>
+  <dimension ref="A1:J360"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8466,23 +8445,23 @@
       <c r="A157" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="20" t="s">
         <v>445</v>
       </c>
       <c r="C157" s="12" t="n">
-        <v>148175.0</v>
+        <v>449586.0</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>223.0</v>
+        <v>222.0</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>378.0</v>
+        <v>332.0</v>
       </c>
       <c r="F157" s="4" t="n">
-        <v>302.32</v>
+        <v>280.399</v>
       </c>
       <c r="G157" s="4" t="n">
-        <v>1.66823</v>
+        <v>1.2639</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>0.0</v>
@@ -8491,62 +8470,62 @@
         <v>446</v>
       </c>
       <c r="J157" s="10" t="n">
-        <v>40298.09452546296</v>
+        <v>43657.86488425926</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B158" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="B158" s="21" t="s">
-        <v>448</v>
-      </c>
       <c r="C158" s="13" t="n">
-        <v>449586.0</v>
+        <v>383007.0</v>
       </c>
       <c r="D158" s="3" t="n">
         <v>222.0</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>332.0</v>
+        <v>313.0</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>280.399</v>
+        <v>201.049</v>
       </c>
       <c r="G158" s="5" t="n">
-        <v>1.2639</v>
+        <v>4.25216</v>
       </c>
       <c r="H158" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J158" s="11" t="n">
-        <v>43657.86488425926</v>
+        <v>43518.864074074074</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B159" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B159" s="28" t="s">
         <v>450</v>
       </c>
       <c r="C159" s="12" t="n">
-        <v>383007.0</v>
+        <v>384237.0</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>222.0</v>
+        <v>221.0</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>313.0</v>
+        <v>677.0</v>
       </c>
       <c r="F159" s="4" t="n">
-        <v>201.049</v>
+        <v>547.871</v>
       </c>
       <c r="G159" s="4" t="n">
-        <v>4.25216</v>
+        <v>1.98131</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>0.0</v>
@@ -8555,62 +8534,62 @@
         <v>451</v>
       </c>
       <c r="J159" s="10" t="n">
-        <v>43518.864074074074</v>
+        <v>43964.86231481482</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B160" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="B160" s="29" t="s">
-        <v>453</v>
-      </c>
       <c r="C160" s="13" t="n">
-        <v>384237.0</v>
+        <v>153095.0</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>221.0</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>677.0</v>
+        <v>264.0</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>547.871</v>
+        <v>231.409</v>
       </c>
       <c r="G160" s="5" t="n">
-        <v>1.98131</v>
+        <v>0.406029</v>
       </c>
       <c r="H160" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J160" s="11" t="n">
-        <v>43964.86231481482</v>
+        <v>40429.79519675926</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B161" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B161" s="22" t="s">
         <v>455</v>
       </c>
       <c r="C161" s="12" t="n">
-        <v>153095.0</v>
+        <v>267049.0</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>221.0</v>
+        <v>220.0</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>264.0</v>
+        <v>458.0</v>
       </c>
       <c r="F161" s="4" t="n">
-        <v>231.409</v>
+        <v>373.438</v>
       </c>
       <c r="G161" s="4" t="n">
-        <v>0.406029</v>
+        <v>1.29666</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>0.0</v>
@@ -8619,30 +8598,30 @@
         <v>456</v>
       </c>
       <c r="J161" s="10" t="n">
-        <v>40429.79519675926</v>
+        <v>41128.89591435185</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="19" t="s">
         <v>458</v>
       </c>
       <c r="C162" s="13" t="n">
-        <v>267049.0</v>
+        <v>269612.0</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>220.0</v>
+        <v>216.0</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>458.0</v>
+        <v>231.0</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>373.438</v>
+        <v>188.772</v>
       </c>
       <c r="G162" s="5" t="n">
-        <v>1.29666</v>
+        <v>2.77446</v>
       </c>
       <c r="H162" s="3" t="n">
         <v>0.0</v>
@@ -8651,30 +8630,30 @@
         <v>459</v>
       </c>
       <c r="J162" s="11" t="n">
-        <v>41128.89591435185</v>
+        <v>43208.571539351855</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="24" t="s">
         <v>461</v>
       </c>
       <c r="C163" s="12" t="n">
-        <v>269612.0</v>
+        <v>567393.0</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>216.0</v>
+        <v>215.0</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>231.0</v>
+        <v>465.0</v>
       </c>
       <c r="F163" s="4" t="n">
-        <v>188.772</v>
+        <v>364.459</v>
       </c>
       <c r="G163" s="4" t="n">
-        <v>2.77446</v>
+        <v>2.14576</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>0.0</v>
@@ -8683,62 +8662,62 @@
         <v>462</v>
       </c>
       <c r="J163" s="10" t="n">
-        <v>43208.571539351855</v>
+        <v>44189.509930555556</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="B164" s="25" t="s">
-        <v>464</v>
-      </c>
       <c r="C164" s="13" t="n">
-        <v>567393.0</v>
+        <v>299484.0</v>
       </c>
       <c r="D164" s="3" t="n">
         <v>215.0</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>465.0</v>
+        <v>475.0</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>364.459</v>
+        <v>356.342</v>
       </c>
       <c r="G164" s="5" t="n">
-        <v>2.14576</v>
+        <v>2.12094</v>
       </c>
       <c r="H164" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J164" s="11" t="n">
-        <v>44189.509930555556</v>
+        <v>42745.81533564815</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B165" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B165" s="30" t="s">
         <v>466</v>
       </c>
       <c r="C165" s="12" t="n">
-        <v>299484.0</v>
+        <v>488630.0</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>215.0</v>
+        <v>212.0</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>475.0</v>
+        <v>730.0</v>
       </c>
       <c r="F165" s="4" t="n">
-        <v>356.342</v>
+        <v>558.662</v>
       </c>
       <c r="G165" s="4" t="n">
-        <v>2.12094</v>
+        <v>2.4758</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>0.0</v>
@@ -8747,62 +8726,62 @@
         <v>467</v>
       </c>
       <c r="J165" s="10" t="n">
-        <v>42745.81533564815</v>
+        <v>44152.817199074074</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B166" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B166" s="31" t="s">
-        <v>469</v>
-      </c>
       <c r="C166" s="13" t="n">
-        <v>488630.0</v>
+        <v>141018.0</v>
       </c>
       <c r="D166" s="3" t="n">
         <v>212.0</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>730.0</v>
+        <v>255.0</v>
       </c>
       <c r="F166" s="5" t="n">
-        <v>558.662</v>
+        <v>201.002</v>
       </c>
       <c r="G166" s="5" t="n">
-        <v>2.4758</v>
+        <v>4.50116</v>
       </c>
       <c r="H166" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J166" s="11" t="n">
-        <v>44152.817199074074</v>
+        <v>40469.79394675926</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B167" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B167" s="22" t="s">
         <v>471</v>
       </c>
       <c r="C167" s="12" t="n">
-        <v>141018.0</v>
+        <v>355056.0</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>212.0</v>
+        <v>211.0</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>255.0</v>
+        <v>359.0</v>
       </c>
       <c r="F167" s="4" t="n">
-        <v>201.002</v>
+        <v>296.58</v>
       </c>
       <c r="G167" s="4" t="n">
-        <v>4.50116</v>
+        <v>3.26885</v>
       </c>
       <c r="H167" s="2" t="n">
         <v>0.0</v>
@@ -8811,7 +8790,7 @@
         <v>472</v>
       </c>
       <c r="J167" s="10" t="n">
-        <v>40469.79394675926</v>
+        <v>41800.599710648145</v>
       </c>
     </row>
     <row r="168">
@@ -8822,19 +8801,19 @@
         <v>474</v>
       </c>
       <c r="C168" s="13" t="n">
-        <v>355056.0</v>
+        <v>535523.0</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>211.0</v>
+        <v>210.0</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>359.0</v>
+        <v>341.0</v>
       </c>
       <c r="F168" s="5" t="n">
-        <v>296.58</v>
+        <v>289.092</v>
       </c>
       <c r="G168" s="5" t="n">
-        <v>3.26885</v>
+        <v>2.34813</v>
       </c>
       <c r="H168" s="3" t="n">
         <v>0.0</v>
@@ -8843,30 +8822,30 @@
         <v>475</v>
       </c>
       <c r="J168" s="11" t="n">
-        <v>41800.599710648145</v>
+        <v>44089.83111111111</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B169" s="22" t="s">
+      <c r="B169" s="28" t="s">
         <v>477</v>
       </c>
       <c r="C169" s="12" t="n">
-        <v>535523.0</v>
+        <v>483144.0</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>210.0</v>
+        <v>208.0</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>341.0</v>
+        <v>631.0</v>
       </c>
       <c r="F169" s="4" t="n">
-        <v>289.092</v>
+        <v>521.874</v>
       </c>
       <c r="G169" s="4" t="n">
-        <v>2.34813</v>
+        <v>0.849426</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>0.0</v>
@@ -8875,30 +8854,30 @@
         <v>478</v>
       </c>
       <c r="J169" s="10" t="n">
-        <v>44089.83111111111</v>
+        <v>44074.803935185184</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="21" t="s">
         <v>480</v>
       </c>
       <c r="C170" s="13" t="n">
-        <v>483144.0</v>
+        <v>428404.0</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>631.0</v>
+        <v>310.0</v>
       </c>
       <c r="F170" s="5" t="n">
-        <v>521.874</v>
+        <v>241.283</v>
       </c>
       <c r="G170" s="5" t="n">
-        <v>0.849426</v>
+        <v>3.6015</v>
       </c>
       <c r="H170" s="3" t="n">
         <v>0.0</v>
@@ -8907,62 +8886,62 @@
         <v>481</v>
       </c>
       <c r="J170" s="11" t="n">
-        <v>44074.803935185184</v>
+        <v>43102.816655092596</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B171" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="B171" s="20" t="s">
-        <v>483</v>
-      </c>
       <c r="C171" s="12" t="n">
-        <v>428404.0</v>
+        <v>200448.0</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>207.0</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>310.0</v>
+        <v>288.0</v>
       </c>
       <c r="F171" s="4" t="n">
-        <v>241.283</v>
+        <v>244.585</v>
       </c>
       <c r="G171" s="4" t="n">
-        <v>3.6015</v>
+        <v>1.67618</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J171" s="10" t="n">
-        <v>43102.816655092596</v>
+        <v>43020.25166666666</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B172" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B172" s="23" t="s">
         <v>485</v>
       </c>
       <c r="C172" s="13" t="n">
-        <v>200448.0</v>
+        <v>168101.0</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>207.0</v>
+        <v>203.0</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>288.0</v>
+        <v>392.0</v>
       </c>
       <c r="F172" s="5" t="n">
-        <v>244.585</v>
+        <v>329.694</v>
       </c>
       <c r="G172" s="5" t="n">
-        <v>1.67618</v>
+        <v>2.06346</v>
       </c>
       <c r="H172" s="3" t="n">
         <v>0.0</v>
@@ -8971,62 +8950,62 @@
         <v>486</v>
       </c>
       <c r="J172" s="11" t="n">
-        <v>43020.25166666666</v>
+        <v>43861.85271990741</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B173" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="B173" s="22" t="s">
-        <v>488</v>
-      </c>
       <c r="C173" s="12" t="n">
-        <v>168101.0</v>
+        <v>79473.0</v>
       </c>
       <c r="D173" s="2" t="n">
         <v>203.0</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>392.0</v>
+        <v>632.0</v>
       </c>
       <c r="F173" s="4" t="n">
-        <v>329.694</v>
+        <v>470.537</v>
       </c>
       <c r="G173" s="4" t="n">
-        <v>2.06346</v>
+        <v>3.14179</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J173" s="10" t="n">
-        <v>43861.85271990741</v>
+        <v>43577.80430555555</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B174" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="B174" s="23" t="s">
         <v>490</v>
       </c>
       <c r="C174" s="13" t="n">
-        <v>79473.0</v>
+        <v>385086.0</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>203.0</v>
+        <v>202.0</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>632.0</v>
+        <v>389.0</v>
       </c>
       <c r="F174" s="5" t="n">
-        <v>470.537</v>
+        <v>313.623</v>
       </c>
       <c r="G174" s="5" t="n">
-        <v>3.14179</v>
+        <v>2.16387</v>
       </c>
       <c r="H174" s="3" t="n">
         <v>0.0</v>
@@ -9035,30 +9014,30 @@
         <v>491</v>
       </c>
       <c r="J174" s="11" t="n">
-        <v>43577.80430555555</v>
+        <v>43865.79803240741</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="20" t="s">
         <v>493</v>
       </c>
       <c r="C175" s="12" t="n">
-        <v>385086.0</v>
+        <v>215735.0</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>202.0</v>
+        <v>198.0</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>389.0</v>
+        <v>383.0</v>
       </c>
       <c r="F175" s="4" t="n">
-        <v>313.623</v>
+        <v>323.557</v>
       </c>
       <c r="G175" s="4" t="n">
-        <v>2.16387</v>
+        <v>1.84935</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>0.0</v>
@@ -9067,7 +9046,7 @@
         <v>494</v>
       </c>
       <c r="J175" s="10" t="n">
-        <v>43865.79803240741</v>
+        <v>41423.4115625</v>
       </c>
     </row>
     <row r="176">
@@ -9078,19 +9057,19 @@
         <v>496</v>
       </c>
       <c r="C176" s="13" t="n">
-        <v>215735.0</v>
+        <v>431456.0</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>198.0</v>
+        <v>197.0</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>383.0</v>
+        <v>284.0</v>
       </c>
       <c r="F176" s="5" t="n">
-        <v>323.557</v>
+        <v>226.114</v>
       </c>
       <c r="G176" s="5" t="n">
-        <v>1.84935</v>
+        <v>4.35515</v>
       </c>
       <c r="H176" s="3" t="n">
         <v>0.0</v>
@@ -9099,7 +9078,7 @@
         <v>497</v>
       </c>
       <c r="J176" s="11" t="n">
-        <v>41423.4115625</v>
+        <v>43945.556493055556</v>
       </c>
     </row>
     <row r="177">
@@ -9110,19 +9089,19 @@
         <v>499</v>
       </c>
       <c r="C177" s="12" t="n">
-        <v>431456.0</v>
+        <v>390293.0</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>197.0</v>
+        <v>195.0</v>
       </c>
       <c r="E177" s="2" t="n">
         <v>284.0</v>
       </c>
       <c r="F177" s="4" t="n">
-        <v>226.114</v>
+        <v>211.972</v>
       </c>
       <c r="G177" s="4" t="n">
-        <v>4.35515</v>
+        <v>3.56965</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>0.0</v>
@@ -9131,62 +9110,62 @@
         <v>500</v>
       </c>
       <c r="J177" s="10" t="n">
-        <v>43945.556493055556</v>
+        <v>43427.541030092594</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B178" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="B178" s="21" t="s">
-        <v>502</v>
-      </c>
       <c r="C178" s="13" t="n">
-        <v>390293.0</v>
+        <v>310596.0</v>
       </c>
       <c r="D178" s="3" t="n">
         <v>195.0</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>284.0</v>
+        <v>632.0</v>
       </c>
       <c r="F178" s="5" t="n">
-        <v>211.972</v>
+        <v>538.706</v>
       </c>
       <c r="G178" s="5" t="n">
-        <v>3.56965</v>
+        <v>1.53647</v>
       </c>
       <c r="H178" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J178" s="11" t="n">
-        <v>43427.541030092594</v>
+        <v>43248.80358796296</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="B179" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="B179" s="26" t="s">
         <v>504</v>
       </c>
       <c r="C179" s="12" t="n">
-        <v>310596.0</v>
+        <v>212.0</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>195.0</v>
+        <v>194.0</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>632.0</v>
+        <v>555.0</v>
       </c>
       <c r="F179" s="4" t="n">
-        <v>538.706</v>
+        <v>478.446</v>
       </c>
       <c r="G179" s="4" t="n">
-        <v>1.53647</v>
+        <v>1.38203</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>0.0</v>
@@ -9195,30 +9174,30 @@
         <v>505</v>
       </c>
       <c r="J179" s="10" t="n">
-        <v>43248.80358796296</v>
+        <v>42999.524247685185</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="25" t="s">
         <v>507</v>
       </c>
       <c r="C180" s="13" t="n">
-        <v>212.0</v>
+        <v>7265.0</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>555.0</v>
+        <v>458.0</v>
       </c>
       <c r="F180" s="5" t="n">
-        <v>478.446</v>
+        <v>390.836</v>
       </c>
       <c r="G180" s="5" t="n">
-        <v>1.38203</v>
+        <v>1.8199</v>
       </c>
       <c r="H180" s="3" t="n">
         <v>0.0</v>
@@ -9227,30 +9206,30 @@
         <v>508</v>
       </c>
       <c r="J180" s="11" t="n">
-        <v>42999.524247685185</v>
+        <v>43208.410416666666</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="20" t="s">
         <v>510</v>
       </c>
       <c r="C181" s="12" t="n">
-        <v>7265.0</v>
+        <v>402248.0</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>193.0</v>
+        <v>192.0</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>458.0</v>
+        <v>314.0</v>
       </c>
       <c r="F181" s="4" t="n">
-        <v>390.836</v>
+        <v>256.05</v>
       </c>
       <c r="G181" s="4" t="n">
-        <v>1.8199</v>
+        <v>5.0151</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>0.0</v>
@@ -9259,30 +9238,30 @@
         <v>511</v>
       </c>
       <c r="J181" s="10" t="n">
-        <v>43208.410416666666</v>
+        <v>42999.45190972222</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B182" s="29" t="s">
         <v>513</v>
       </c>
       <c r="C182" s="13" t="n">
-        <v>402248.0</v>
+        <v>209856.0</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>192.0</v>
+        <v>191.0</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>314.0</v>
+        <v>632.0</v>
       </c>
       <c r="F182" s="5" t="n">
-        <v>256.05</v>
+        <v>534.645</v>
       </c>
       <c r="G182" s="5" t="n">
-        <v>5.0151</v>
+        <v>1.27205</v>
       </c>
       <c r="H182" s="3" t="n">
         <v>0.0</v>
@@ -9291,30 +9270,30 @@
         <v>514</v>
       </c>
       <c r="J182" s="11" t="n">
-        <v>42999.45190972222</v>
+        <v>44180.81501157407</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B183" s="28" t="s">
+      <c r="B183" s="24" t="s">
         <v>516</v>
       </c>
       <c r="C183" s="12" t="n">
-        <v>209856.0</v>
+        <v>309803.0</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>191.0</v>
+        <v>189.0</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>632.0</v>
+        <v>431.0</v>
       </c>
       <c r="F183" s="4" t="n">
-        <v>534.645</v>
+        <v>322.031</v>
       </c>
       <c r="G183" s="4" t="n">
-        <v>1.27205</v>
+        <v>2.07212</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>0.0</v>
@@ -9323,7 +9302,7 @@
         <v>517</v>
       </c>
       <c r="J183" s="10" t="n">
-        <v>44180.81501157407</v>
+        <v>42361.664988425924</v>
       </c>
     </row>
     <row r="184">
@@ -9334,19 +9313,19 @@
         <v>519</v>
       </c>
       <c r="C184" s="13" t="n">
-        <v>309803.0</v>
+        <v>488276.0</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>189.0</v>
+        <v>185.0</v>
       </c>
       <c r="E184" s="3" t="n">
-        <v>431.0</v>
+        <v>484.0</v>
       </c>
       <c r="F184" s="5" t="n">
-        <v>322.031</v>
+        <v>379.797</v>
       </c>
       <c r="G184" s="5" t="n">
-        <v>2.07212</v>
+        <v>2.16464</v>
       </c>
       <c r="H184" s="3" t="n">
         <v>0.0</v>
@@ -9355,62 +9334,62 @@
         <v>520</v>
       </c>
       <c r="J184" s="11" t="n">
-        <v>42361.664988425924</v>
+        <v>43861.454560185186</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B185" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="B185" s="24" t="s">
-        <v>522</v>
-      </c>
       <c r="C185" s="12" t="n">
-        <v>488276.0</v>
+        <v>377899.0</v>
       </c>
       <c r="D185" s="2" t="n">
         <v>185.0</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>484.0</v>
+        <v>451.0</v>
       </c>
       <c r="F185" s="4" t="n">
-        <v>379.797</v>
+        <v>382.737</v>
       </c>
       <c r="G185" s="4" t="n">
-        <v>2.16464</v>
+        <v>1.5137</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J185" s="10" t="n">
-        <v>43861.454560185186</v>
+        <v>43500.81570601852</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B186" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="B186" s="21" t="s">
         <v>524</v>
       </c>
       <c r="C186" s="13" t="n">
-        <v>377899.0</v>
+        <v>443800.0</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="E186" s="3" t="n">
-        <v>451.0</v>
+        <v>282.0</v>
       </c>
       <c r="F186" s="5" t="n">
-        <v>382.737</v>
+        <v>241.01</v>
       </c>
       <c r="G186" s="5" t="n">
-        <v>1.5137</v>
+        <v>3.07924</v>
       </c>
       <c r="H186" s="3" t="n">
         <v>0.0</v>
@@ -9419,62 +9398,62 @@
         <v>525</v>
       </c>
       <c r="J186" s="11" t="n">
-        <v>43500.81570601852</v>
+        <v>44134.544583333336</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B187" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="B187" s="20" t="s">
-        <v>527</v>
-      </c>
       <c r="C187" s="12" t="n">
-        <v>443800.0</v>
+        <v>163580.0</v>
       </c>
       <c r="D187" s="2" t="n">
         <v>184.0</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>282.0</v>
+        <v>344.0</v>
       </c>
       <c r="F187" s="4" t="n">
-        <v>241.01</v>
+        <v>273.371</v>
       </c>
       <c r="G187" s="4" t="n">
-        <v>3.07924</v>
+        <v>2.97385</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J187" s="10" t="n">
-        <v>44134.544583333336</v>
+        <v>43221.81505787037</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B188" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B188" s="27" t="s">
         <v>529</v>
       </c>
       <c r="C188" s="13" t="n">
-        <v>163580.0</v>
+        <v>307440.0</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>184.0</v>
+        <v>183.0</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>344.0</v>
+        <v>512.0</v>
       </c>
       <c r="F188" s="5" t="n">
-        <v>273.371</v>
+        <v>441.593</v>
       </c>
       <c r="G188" s="5" t="n">
-        <v>2.97385</v>
+        <v>1.736</v>
       </c>
       <c r="H188" s="3" t="n">
         <v>0.0</v>
@@ -9483,30 +9462,30 @@
         <v>530</v>
       </c>
       <c r="J188" s="11" t="n">
-        <v>43221.81505787037</v>
+        <v>43361.961643518516</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="22" t="s">
         <v>532</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>307440.0</v>
+        <v>532780.0</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>183.0</v>
+        <v>182.0</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>512.0</v>
+        <v>427.0</v>
       </c>
       <c r="F189" s="4" t="n">
-        <v>441.593</v>
+        <v>362.241</v>
       </c>
       <c r="G189" s="4" t="n">
-        <v>1.736</v>
+        <v>1.71033</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>0.0</v>
@@ -9515,126 +9494,126 @@
         <v>533</v>
       </c>
       <c r="J189" s="10" t="n">
-        <v>43361.961643518516</v>
+        <v>44134.66439814815</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B190" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="B190" s="23" t="s">
-        <v>535</v>
-      </c>
       <c r="C190" s="13" t="n">
-        <v>532780.0</v>
+        <v>410852.0</v>
       </c>
       <c r="D190" s="3" t="n">
         <v>182.0</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>427.0</v>
+        <v>428.0</v>
       </c>
       <c r="F190" s="5" t="n">
-        <v>362.241</v>
+        <v>343.738</v>
       </c>
       <c r="G190" s="5" t="n">
-        <v>1.71033</v>
+        <v>2.20611</v>
       </c>
       <c r="H190" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J190" s="11" t="n">
-        <v>44134.66439814815</v>
+        <v>43111.759930555556</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="B191" s="22" t="s">
-        <v>537</v>
+        <v>531</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>536</v>
       </c>
       <c r="C191" s="12" t="n">
-        <v>410852.0</v>
+        <v>298167.0</v>
       </c>
       <c r="D191" s="2" t="n">
         <v>182.0</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>428.0</v>
+        <v>552.0</v>
       </c>
       <c r="F191" s="4" t="n">
-        <v>343.738</v>
+        <v>484.282</v>
       </c>
       <c r="G191" s="4" t="n">
-        <v>2.20611</v>
+        <v>1.17048</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J191" s="10" t="n">
-        <v>43111.759930555556</v>
+        <v>43852.95011574074</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B192" s="27" t="s">
-        <v>539</v>
+        <v>531</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>538</v>
       </c>
       <c r="C192" s="13" t="n">
-        <v>298167.0</v>
+        <v>250938.0</v>
       </c>
       <c r="D192" s="3" t="n">
         <v>182.0</v>
       </c>
       <c r="E192" s="3" t="n">
-        <v>552.0</v>
+        <v>470.0</v>
       </c>
       <c r="F192" s="5" t="n">
-        <v>484.282</v>
+        <v>401.467</v>
       </c>
       <c r="G192" s="5" t="n">
-        <v>1.17048</v>
+        <v>2.26017</v>
       </c>
       <c r="H192" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I192" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J192" s="11" t="n">
-        <v>43852.95011574074</v>
+        <v>43711.81611111111</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="B193" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B193" s="22" t="s">
         <v>541</v>
       </c>
       <c r="C193" s="12" t="n">
-        <v>250938.0</v>
+        <v>512620.0</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>182.0</v>
+        <v>180.0</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>470.0</v>
+        <v>364.0</v>
       </c>
       <c r="F193" s="4" t="n">
-        <v>401.467</v>
+        <v>306.743</v>
       </c>
       <c r="G193" s="4" t="n">
-        <v>2.26017</v>
+        <v>2.16824</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>0.0</v>
@@ -9643,62 +9622,62 @@
         <v>542</v>
       </c>
       <c r="J193" s="10" t="n">
-        <v>43711.81611111111</v>
+        <v>44173.815</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B194" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B194" s="23" t="s">
-        <v>544</v>
-      </c>
       <c r="C194" s="13" t="n">
-        <v>512620.0</v>
+        <v>211962.0</v>
       </c>
       <c r="D194" s="3" t="n">
         <v>180.0</v>
       </c>
       <c r="E194" s="3" t="n">
-        <v>364.0</v>
+        <v>485.0</v>
       </c>
       <c r="F194" s="5" t="n">
-        <v>306.743</v>
+        <v>424.46</v>
       </c>
       <c r="G194" s="5" t="n">
-        <v>2.16824</v>
+        <v>1.98566</v>
       </c>
       <c r="H194" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J194" s="11" t="n">
-        <v>44173.815</v>
+        <v>43945.577881944446</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B195" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="B195" s="22" t="s">
         <v>546</v>
       </c>
       <c r="C195" s="12" t="n">
-        <v>211962.0</v>
+        <v>480809.0</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>180.0</v>
+        <v>179.0</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>485.0</v>
+        <v>352.0</v>
       </c>
       <c r="F195" s="4" t="n">
-        <v>424.46</v>
+        <v>259.83</v>
       </c>
       <c r="G195" s="4" t="n">
-        <v>1.98566</v>
+        <v>2.95511</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>0.0</v>
@@ -9707,30 +9686,30 @@
         <v>547</v>
       </c>
       <c r="J195" s="10" t="n">
-        <v>43945.577881944446</v>
+        <v>43762.81519675926</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" s="21" t="s">
         <v>549</v>
       </c>
       <c r="C196" s="13" t="n">
-        <v>480809.0</v>
+        <v>451349.0</v>
       </c>
       <c r="D196" s="3" t="n">
-        <v>179.0</v>
+        <v>178.0</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>352.0</v>
+        <v>363.0</v>
       </c>
       <c r="F196" s="5" t="n">
-        <v>259.83</v>
+        <v>295.731</v>
       </c>
       <c r="G196" s="5" t="n">
-        <v>2.95511</v>
+        <v>2.53561</v>
       </c>
       <c r="H196" s="3" t="n">
         <v>0.0</v>
@@ -9739,126 +9718,126 @@
         <v>550</v>
       </c>
       <c r="J196" s="11" t="n">
-        <v>43762.81519675926</v>
+        <v>43843.71173611111</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B197" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="B197" s="20" t="s">
-        <v>552</v>
-      </c>
       <c r="C197" s="12" t="n">
-        <v>451349.0</v>
+        <v>448858.0</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>178.0</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>363.0</v>
+        <v>256.0</v>
       </c>
       <c r="F197" s="4" t="n">
-        <v>295.731</v>
+        <v>214.6</v>
       </c>
       <c r="G197" s="4" t="n">
-        <v>2.53561</v>
+        <v>3.933</v>
       </c>
       <c r="H197" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>553</v>
+        <v>232</v>
       </c>
       <c r="J197" s="10" t="n">
-        <v>43843.71173611111</v>
+        <v>43343.4834375</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B198" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>552</v>
       </c>
       <c r="C198" s="13" t="n">
-        <v>448858.0</v>
+        <v>440171.0</v>
       </c>
       <c r="D198" s="3" t="n">
         <v>178.0</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>256.0</v>
+        <v>447.0</v>
       </c>
       <c r="F198" s="5" t="n">
-        <v>214.6</v>
+        <v>347.942</v>
       </c>
       <c r="G198" s="5" t="n">
-        <v>3.933</v>
+        <v>2.22219</v>
       </c>
       <c r="H198" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>232</v>
+        <v>553</v>
       </c>
       <c r="J198" s="11" t="n">
-        <v>43343.4834375</v>
+        <v>43861.34269675926</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C199" s="12" t="n">
-        <v>440171.0</v>
+        <v>357941.0</v>
       </c>
       <c r="D199" s="2" t="n">
         <v>178.0</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>447.0</v>
+        <v>436.0</v>
       </c>
       <c r="F199" s="4" t="n">
-        <v>347.942</v>
+        <v>338.795</v>
       </c>
       <c r="G199" s="4" t="n">
-        <v>2.22219</v>
+        <v>2.39418</v>
       </c>
       <c r="H199" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J199" s="10" t="n">
-        <v>43861.34269675926</v>
+        <v>43748.81539351852</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B200" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="B200" s="27" t="s">
         <v>557</v>
       </c>
       <c r="C200" s="13" t="n">
-        <v>357941.0</v>
+        <v>264418.0</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>178.0</v>
+        <v>177.0</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>436.0</v>
+        <v>569.0</v>
       </c>
       <c r="F200" s="5" t="n">
-        <v>338.795</v>
+        <v>451.976</v>
       </c>
       <c r="G200" s="5" t="n">
-        <v>2.39418</v>
+        <v>2.51109</v>
       </c>
       <c r="H200" s="3" t="n">
         <v>0.0</v>
@@ -9867,30 +9846,30 @@
         <v>558</v>
       </c>
       <c r="J200" s="11" t="n">
-        <v>43748.81539351852</v>
+        <v>44068.81675925926</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="20" t="s">
         <v>560</v>
       </c>
       <c r="C201" s="12" t="n">
-        <v>264418.0</v>
+        <v>124474.0</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>569.0</v>
+        <v>324.0</v>
       </c>
       <c r="F201" s="4" t="n">
-        <v>451.976</v>
+        <v>274.597</v>
       </c>
       <c r="G201" s="4" t="n">
-        <v>2.51109</v>
+        <v>1.42087</v>
       </c>
       <c r="H201" s="2" t="n">
         <v>0.0</v>
@@ -9899,62 +9878,62 @@
         <v>561</v>
       </c>
       <c r="J201" s="10" t="n">
-        <v>44068.81675925926</v>
+        <v>39964.79571759259</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B202" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="B202" s="21" t="s">
-        <v>563</v>
-      </c>
       <c r="C202" s="13" t="n">
-        <v>124474.0</v>
+        <v>10277.0</v>
       </c>
       <c r="D202" s="3" t="n">
         <v>176.0</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>324.0</v>
+        <v>308.0</v>
       </c>
       <c r="F202" s="5" t="n">
-        <v>274.597</v>
+        <v>252.37</v>
       </c>
       <c r="G202" s="5" t="n">
-        <v>1.42087</v>
+        <v>2.57402</v>
       </c>
       <c r="H202" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J202" s="11" t="n">
-        <v>39964.79571759259</v>
+        <v>43843.50033564815</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="B203" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="B203" s="24" t="s">
         <v>565</v>
       </c>
       <c r="C203" s="12" t="n">
-        <v>10277.0</v>
+        <v>404472.0</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>308.0</v>
+        <v>435.0</v>
       </c>
       <c r="F203" s="4" t="n">
-        <v>252.37</v>
+        <v>360.22</v>
       </c>
       <c r="G203" s="4" t="n">
-        <v>2.57402</v>
+        <v>2.18356</v>
       </c>
       <c r="H203" s="2" t="n">
         <v>0.0</v>
@@ -9963,62 +9942,62 @@
         <v>566</v>
       </c>
       <c r="J203" s="10" t="n">
-        <v>43843.50033564815</v>
+        <v>43208.33993055556</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B204" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="B204" s="25" t="s">
-        <v>568</v>
-      </c>
       <c r="C204" s="13" t="n">
-        <v>404472.0</v>
+        <v>349578.0</v>
       </c>
       <c r="D204" s="3" t="n">
         <v>175.0</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>435.0</v>
+        <v>497.0</v>
       </c>
       <c r="F204" s="5" t="n">
-        <v>360.22</v>
+        <v>409.477</v>
       </c>
       <c r="G204" s="5" t="n">
-        <v>2.18356</v>
+        <v>1.20508</v>
       </c>
       <c r="H204" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J204" s="11" t="n">
-        <v>43208.33993055556</v>
+        <v>42539.8996412037</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>570</v>
       </c>
       <c r="C205" s="12" t="n">
-        <v>349578.0</v>
+        <v>442879.0</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>175.0</v>
+        <v>172.0</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>497.0</v>
+        <v>467.0</v>
       </c>
       <c r="F205" s="4" t="n">
-        <v>409.477</v>
+        <v>353.057</v>
       </c>
       <c r="G205" s="4" t="n">
-        <v>1.20508</v>
+        <v>1.75008</v>
       </c>
       <c r="H205" s="2" t="n">
         <v>0.0</v>
@@ -10027,62 +10006,62 @@
         <v>571</v>
       </c>
       <c r="J205" s="10" t="n">
-        <v>42539.8996412037</v>
+        <v>44160.79928240741</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B206" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="B206" s="25" t="s">
-        <v>573</v>
-      </c>
       <c r="C206" s="13" t="n">
-        <v>442879.0</v>
+        <v>438663.0</v>
       </c>
       <c r="D206" s="3" t="n">
         <v>172.0</v>
       </c>
       <c r="E206" s="3" t="n">
-        <v>467.0</v>
+        <v>244.0</v>
       </c>
       <c r="F206" s="5" t="n">
-        <v>353.057</v>
+        <v>179.624</v>
       </c>
       <c r="G206" s="5" t="n">
-        <v>1.75008</v>
+        <v>3.1074</v>
       </c>
       <c r="H206" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J206" s="11" t="n">
-        <v>44160.79928240741</v>
+        <v>42433.60769675926</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B207" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B207" s="22" t="s">
         <v>575</v>
       </c>
       <c r="C207" s="12" t="n">
-        <v>438663.0</v>
+        <v>482392.0</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>244.0</v>
+        <v>423.0</v>
       </c>
       <c r="F207" s="4" t="n">
-        <v>179.624</v>
+        <v>335.948</v>
       </c>
       <c r="G207" s="4" t="n">
-        <v>3.1074</v>
+        <v>2.39187</v>
       </c>
       <c r="H207" s="2" t="n">
         <v>0.0</v>
@@ -10091,7 +10070,7 @@
         <v>576</v>
       </c>
       <c r="J207" s="10" t="n">
-        <v>42433.60769675926</v>
+        <v>44043.43966435185</v>
       </c>
     </row>
     <row r="208">
@@ -10102,19 +10081,19 @@
         <v>578</v>
       </c>
       <c r="C208" s="13" t="n">
-        <v>482392.0</v>
+        <v>411000.0</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="E208" s="3" t="n">
-        <v>423.0</v>
+        <v>393.0</v>
       </c>
       <c r="F208" s="5" t="n">
-        <v>335.948</v>
+        <v>325.863</v>
       </c>
       <c r="G208" s="5" t="n">
-        <v>2.39187</v>
+        <v>2.02753</v>
       </c>
       <c r="H208" s="3" t="n">
         <v>0.0</v>
@@ -10123,62 +10102,62 @@
         <v>579</v>
       </c>
       <c r="J208" s="11" t="n">
-        <v>44043.43966435185</v>
+        <v>43936.79990740741</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B209" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="B209" s="22" t="s">
-        <v>581</v>
-      </c>
       <c r="C209" s="12" t="n">
-        <v>411000.0</v>
+        <v>319942.0</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>170.0</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>393.0</v>
+        <v>403.0</v>
       </c>
       <c r="F209" s="4" t="n">
-        <v>325.863</v>
+        <v>325.078</v>
       </c>
       <c r="G209" s="4" t="n">
-        <v>2.02753</v>
+        <v>3.09769</v>
       </c>
       <c r="H209" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J209" s="10" t="n">
-        <v>43936.79990740741</v>
+        <v>42731.42204861111</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B210" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="B210" s="23" t="s">
         <v>583</v>
       </c>
       <c r="C210" s="13" t="n">
-        <v>319942.0</v>
+        <v>572700.0</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="E210" s="3" t="n">
-        <v>403.0</v>
+        <v>399.0</v>
       </c>
       <c r="F210" s="5" t="n">
-        <v>325.078</v>
+        <v>325.438</v>
       </c>
       <c r="G210" s="5" t="n">
-        <v>3.09769</v>
+        <v>3.06778</v>
       </c>
       <c r="H210" s="3" t="n">
         <v>0.0</v>
@@ -10187,62 +10166,62 @@
         <v>584</v>
       </c>
       <c r="J210" s="11" t="n">
-        <v>42731.42204861111</v>
+        <v>44173.805625</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B211" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="B211" s="22" t="s">
-        <v>586</v>
-      </c>
       <c r="C211" s="12" t="n">
-        <v>572700.0</v>
+        <v>379271.0</v>
       </c>
       <c r="D211" s="2" t="n">
         <v>169.0</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>399.0</v>
+        <v>470.0</v>
       </c>
       <c r="F211" s="4" t="n">
-        <v>325.438</v>
+        <v>361.6</v>
       </c>
       <c r="G211" s="4" t="n">
-        <v>3.06778</v>
+        <v>2.72424</v>
       </c>
       <c r="H211" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J211" s="10" t="n">
-        <v>44173.805625</v>
+        <v>42923.713854166665</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="B212" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="B212" s="23" t="s">
         <v>588</v>
       </c>
       <c r="C212" s="13" t="n">
-        <v>379271.0</v>
+        <v>477306.0</v>
       </c>
       <c r="D212" s="3" t="n">
-        <v>169.0</v>
+        <v>168.0</v>
       </c>
       <c r="E212" s="3" t="n">
-        <v>470.0</v>
+        <v>353.0</v>
       </c>
       <c r="F212" s="5" t="n">
-        <v>361.6</v>
+        <v>286.264</v>
       </c>
       <c r="G212" s="5" t="n">
-        <v>2.72424</v>
+        <v>2.90709</v>
       </c>
       <c r="H212" s="3" t="n">
         <v>0.0</v>
@@ -10251,30 +10230,30 @@
         <v>589</v>
       </c>
       <c r="J212" s="11" t="n">
-        <v>42923.713854166665</v>
+        <v>43428.165868055556</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="B213" s="22" t="s">
+      <c r="B213" s="26" t="s">
         <v>591</v>
       </c>
       <c r="C213" s="12" t="n">
-        <v>477306.0</v>
+        <v>120412.0</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>168.0</v>
+        <v>166.0</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>353.0</v>
+        <v>491.0</v>
       </c>
       <c r="F213" s="4" t="n">
-        <v>286.264</v>
+        <v>392.753</v>
       </c>
       <c r="G213" s="4" t="n">
-        <v>2.90709</v>
+        <v>3.04017</v>
       </c>
       <c r="H213" s="2" t="n">
         <v>0.0</v>
@@ -10283,30 +10262,30 @@
         <v>592</v>
       </c>
       <c r="J213" s="10" t="n">
-        <v>43428.165868055556</v>
+        <v>44060.840833333335</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="B214" s="27" t="s">
+      <c r="B214" s="25" t="s">
         <v>594</v>
       </c>
       <c r="C214" s="13" t="n">
-        <v>120412.0</v>
+        <v>486990.0</v>
       </c>
       <c r="D214" s="3" t="n">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="E214" s="3" t="n">
-        <v>491.0</v>
+        <v>455.0</v>
       </c>
       <c r="F214" s="5" t="n">
-        <v>392.753</v>
+        <v>392.062</v>
       </c>
       <c r="G214" s="5" t="n">
-        <v>3.04017</v>
+        <v>1.58974</v>
       </c>
       <c r="H214" s="3" t="n">
         <v>0.0</v>
@@ -10315,30 +10294,30 @@
         <v>595</v>
       </c>
       <c r="J214" s="11" t="n">
-        <v>44060.840833333335</v>
+        <v>44134.70398148148</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="B215" s="24" t="s">
+      <c r="B215" s="28" t="s">
         <v>597</v>
       </c>
       <c r="C215" s="12" t="n">
-        <v>486990.0</v>
+        <v>205652.0</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>455.0</v>
+        <v>612.0</v>
       </c>
       <c r="F215" s="4" t="n">
-        <v>392.062</v>
+        <v>522.549</v>
       </c>
       <c r="G215" s="4" t="n">
-        <v>1.58974</v>
+        <v>1.15299</v>
       </c>
       <c r="H215" s="2" t="n">
         <v>0.0</v>
@@ -10347,94 +10326,94 @@
         <v>598</v>
       </c>
       <c r="J215" s="10" t="n">
-        <v>44134.70398148148</v>
+        <v>43311.80355324074</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B216" s="29" t="s">
+      <c r="B216" s="25" t="s">
         <v>600</v>
       </c>
       <c r="C216" s="13" t="n">
-        <v>205652.0</v>
+        <v>346928.0</v>
       </c>
       <c r="D216" s="3" t="n">
-        <v>164.0</v>
+        <v>163.0</v>
       </c>
       <c r="E216" s="3" t="n">
-        <v>612.0</v>
+        <v>415.0</v>
       </c>
       <c r="F216" s="5" t="n">
-        <v>522.549</v>
+        <v>334.957</v>
       </c>
       <c r="G216" s="5" t="n">
-        <v>1.15299</v>
+        <v>1.95282</v>
       </c>
       <c r="H216" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="J216" s="11" t="n">
-        <v>43311.80355324074</v>
+        <v>42724.81587962963</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B217" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="B217" s="24" t="s">
+      <c r="C217" s="12" t="n">
+        <v>221786.0</v>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="F217" s="4" t="n">
+        <v>425.944</v>
+      </c>
+      <c r="G217" s="4" t="n">
+        <v>2.10604</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I217" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="C217" s="12" t="n">
-        <v>346928.0</v>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="E217" s="2" t="n">
-        <v>415.0</v>
-      </c>
-      <c r="F217" s="4" t="n">
-        <v>334.957</v>
-      </c>
-      <c r="G217" s="4" t="n">
-        <v>1.95282</v>
-      </c>
-      <c r="H217" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I217" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="J217" s="10" t="n">
-        <v>42724.81587962963</v>
+        <v>44160.79924768519</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B218" s="27" t="s">
+      <c r="B218" s="23" t="s">
         <v>605</v>
       </c>
       <c r="C218" s="13" t="n">
-        <v>221786.0</v>
+        <v>483891.0</v>
       </c>
       <c r="D218" s="3" t="n">
-        <v>162.0</v>
+        <v>161.0</v>
       </c>
       <c r="E218" s="3" t="n">
-        <v>503.0</v>
+        <v>327.0</v>
       </c>
       <c r="F218" s="5" t="n">
-        <v>425.944</v>
+        <v>267.997</v>
       </c>
       <c r="G218" s="5" t="n">
-        <v>2.10604</v>
+        <v>2.0882</v>
       </c>
       <c r="H218" s="3" t="n">
         <v>0.0</v>
@@ -10443,30 +10422,30 @@
         <v>606</v>
       </c>
       <c r="J218" s="11" t="n">
-        <v>44160.79924768519</v>
+        <v>44149.612337962964</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B219" s="22" t="s">
+      <c r="B219" s="16" t="s">
         <v>608</v>
       </c>
       <c r="C219" s="12" t="n">
-        <v>483891.0</v>
+        <v>228409.0</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>161.0</v>
+        <v>160.0</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>327.0</v>
+        <v>174.0</v>
       </c>
       <c r="F219" s="4" t="n">
-        <v>267.997</v>
+        <v>129.95</v>
       </c>
       <c r="G219" s="4" t="n">
-        <v>2.0882</v>
+        <v>4.13424</v>
       </c>
       <c r="H219" s="2" t="n">
         <v>0.0</v>
@@ -10475,30 +10454,30 @@
         <v>609</v>
       </c>
       <c r="J219" s="10" t="n">
-        <v>44149.612337962964</v>
+        <v>40521.397256944445</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B220" s="17" t="s">
+      <c r="B220" s="21" t="s">
         <v>611</v>
       </c>
       <c r="C220" s="13" t="n">
-        <v>228409.0</v>
+        <v>518335.0</v>
       </c>
       <c r="D220" s="3" t="n">
-        <v>160.0</v>
+        <v>159.0</v>
       </c>
       <c r="E220" s="3" t="n">
-        <v>174.0</v>
+        <v>258.0</v>
       </c>
       <c r="F220" s="5" t="n">
-        <v>129.95</v>
+        <v>209.019</v>
       </c>
       <c r="G220" s="5" t="n">
-        <v>4.13424</v>
+        <v>4.93548</v>
       </c>
       <c r="H220" s="3" t="n">
         <v>0.0</v>
@@ -10507,62 +10486,62 @@
         <v>612</v>
       </c>
       <c r="J220" s="11" t="n">
-        <v>40521.397256944445</v>
+        <v>43945.47604166667</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B221" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="B221" s="20" t="s">
-        <v>614</v>
-      </c>
       <c r="C221" s="12" t="n">
-        <v>518335.0</v>
+        <v>469235.0</v>
       </c>
       <c r="D221" s="2" t="n">
         <v>159.0</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>258.0</v>
+        <v>407.0</v>
       </c>
       <c r="F221" s="4" t="n">
-        <v>209.019</v>
+        <v>358.551</v>
       </c>
       <c r="G221" s="4" t="n">
-        <v>4.93548</v>
+        <v>0.562514</v>
       </c>
       <c r="H221" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J221" s="10" t="n">
-        <v>43945.47604166667</v>
+        <v>43269.80564814815</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B222" s="25" t="s">
         <v>616</v>
       </c>
       <c r="C222" s="13" t="n">
-        <v>469235.0</v>
+        <v>31373.0</v>
       </c>
       <c r="D222" s="3" t="n">
-        <v>159.0</v>
+        <v>158.0</v>
       </c>
       <c r="E222" s="3" t="n">
-        <v>407.0</v>
+        <v>443.0</v>
       </c>
       <c r="F222" s="5" t="n">
-        <v>358.551</v>
+        <v>354.019</v>
       </c>
       <c r="G222" s="5" t="n">
-        <v>0.562514</v>
+        <v>2.31211</v>
       </c>
       <c r="H222" s="3" t="n">
         <v>0.0</v>
@@ -10571,7 +10550,7 @@
         <v>617</v>
       </c>
       <c r="J222" s="11" t="n">
-        <v>43269.80564814815</v>
+        <v>42955.82009259259</v>
       </c>
     </row>
     <row r="223">
@@ -10582,19 +10561,19 @@
         <v>619</v>
       </c>
       <c r="C223" s="12" t="n">
-        <v>31373.0</v>
+        <v>476821.0</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>158.0</v>
+        <v>157.0</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>443.0</v>
+        <v>520.0</v>
       </c>
       <c r="F223" s="4" t="n">
-        <v>354.019</v>
+        <v>414.741</v>
       </c>
       <c r="G223" s="4" t="n">
-        <v>2.31211</v>
+        <v>1.98128</v>
       </c>
       <c r="H223" s="2" t="n">
         <v>0.0</v>
@@ -10603,62 +10582,62 @@
         <v>620</v>
       </c>
       <c r="J223" s="10" t="n">
-        <v>42955.82009259259</v>
+        <v>44173.81484953704</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B224" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="B224" s="25" t="s">
-        <v>622</v>
-      </c>
       <c r="C224" s="13" t="n">
-        <v>476821.0</v>
+        <v>324923.0</v>
       </c>
       <c r="D224" s="3" t="n">
         <v>157.0</v>
       </c>
       <c r="E224" s="3" t="n">
-        <v>520.0</v>
+        <v>462.0</v>
       </c>
       <c r="F224" s="5" t="n">
-        <v>414.741</v>
+        <v>367.707</v>
       </c>
       <c r="G224" s="5" t="n">
-        <v>1.98128</v>
+        <v>2.85194</v>
       </c>
       <c r="H224" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J224" s="11" t="n">
-        <v>44173.81484953704</v>
+        <v>42792.91069444444</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B225" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="B225" s="14" t="s">
         <v>624</v>
       </c>
       <c r="C225" s="12" t="n">
-        <v>324923.0</v>
+        <v>379208.0</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>462.0</v>
+        <v>313.0</v>
       </c>
       <c r="F225" s="4" t="n">
-        <v>367.707</v>
+        <v>245.733</v>
       </c>
       <c r="G225" s="4" t="n">
-        <v>2.85194</v>
+        <v>2.20945</v>
       </c>
       <c r="H225" s="2" t="n">
         <v>0.0</v>
@@ -10667,30 +10646,30 @@
         <v>625</v>
       </c>
       <c r="J225" s="10" t="n">
-        <v>42792.91069444444</v>
+        <v>41829.210231481484</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="27" t="s">
         <v>627</v>
       </c>
       <c r="C226" s="13" t="n">
-        <v>379208.0</v>
+        <v>521696.0</v>
       </c>
       <c r="D226" s="3" t="n">
-        <v>156.0</v>
+        <v>154.0</v>
       </c>
       <c r="E226" s="3" t="n">
-        <v>313.0</v>
+        <v>605.0</v>
       </c>
       <c r="F226" s="5" t="n">
-        <v>245.733</v>
+        <v>504.466</v>
       </c>
       <c r="G226" s="5" t="n">
-        <v>2.20945</v>
+        <v>1.64621</v>
       </c>
       <c r="H226" s="3" t="n">
         <v>0.0</v>
@@ -10699,30 +10678,30 @@
         <v>628</v>
       </c>
       <c r="J226" s="11" t="n">
-        <v>41829.210231481484</v>
+        <v>43501.961643518516</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B227" s="26" t="s">
+      <c r="B227" s="20" t="s">
         <v>630</v>
       </c>
       <c r="C227" s="12" t="n">
-        <v>521696.0</v>
+        <v>554515.0</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>154.0</v>
+        <v>153.0</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>605.0</v>
+        <v>325.0</v>
       </c>
       <c r="F227" s="4" t="n">
-        <v>504.466</v>
+        <v>254.688</v>
       </c>
       <c r="G227" s="4" t="n">
-        <v>1.64621</v>
+        <v>2.8162</v>
       </c>
       <c r="H227" s="2" t="n">
         <v>0.0</v>
@@ -10731,30 +10710,30 @@
         <v>631</v>
       </c>
       <c r="J227" s="10" t="n">
-        <v>43501.961643518516</v>
+        <v>44134.31798611111</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="23" t="s">
         <v>633</v>
       </c>
       <c r="C228" s="13" t="n">
-        <v>554515.0</v>
+        <v>230318.0</v>
       </c>
       <c r="D228" s="3" t="n">
-        <v>153.0</v>
+        <v>152.0</v>
       </c>
       <c r="E228" s="3" t="n">
-        <v>325.0</v>
+        <v>388.0</v>
       </c>
       <c r="F228" s="5" t="n">
-        <v>254.688</v>
+        <v>312.861</v>
       </c>
       <c r="G228" s="5" t="n">
-        <v>2.8162</v>
+        <v>1.99264</v>
       </c>
       <c r="H228" s="3" t="n">
         <v>0.0</v>
@@ -10763,62 +10742,62 @@
         <v>634</v>
       </c>
       <c r="J228" s="11" t="n">
-        <v>44134.31798611111</v>
+        <v>43748.81549768519</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B229" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="B229" s="22" t="s">
-        <v>636</v>
-      </c>
       <c r="C229" s="12" t="n">
-        <v>230318.0</v>
+        <v>220148.0</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>152.0</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>388.0</v>
+        <v>448.0</v>
       </c>
       <c r="F229" s="4" t="n">
-        <v>312.861</v>
+        <v>375.422</v>
       </c>
       <c r="G229" s="4" t="n">
-        <v>1.99264</v>
+        <v>2.15991</v>
       </c>
       <c r="H229" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J229" s="10" t="n">
-        <v>43748.81549768519</v>
+        <v>44130.90607638889</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B230" s="25" t="s">
+        <v>637</v>
+      </c>
+      <c r="B230" s="31" t="s">
         <v>638</v>
       </c>
       <c r="C230" s="13" t="n">
-        <v>220148.0</v>
+        <v>117729.0</v>
       </c>
       <c r="D230" s="3" t="n">
-        <v>152.0</v>
+        <v>151.0</v>
       </c>
       <c r="E230" s="3" t="n">
-        <v>448.0</v>
+        <v>693.0</v>
       </c>
       <c r="F230" s="5" t="n">
-        <v>375.422</v>
+        <v>540.224</v>
       </c>
       <c r="G230" s="5" t="n">
-        <v>2.15991</v>
+        <v>1.78917</v>
       </c>
       <c r="H230" s="3" t="n">
         <v>0.0</v>
@@ -10827,62 +10806,62 @@
         <v>639</v>
       </c>
       <c r="J230" s="11" t="n">
-        <v>44130.90607638889</v>
+        <v>44173.79696759259</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B231" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="B231" s="30" t="s">
-        <v>641</v>
-      </c>
       <c r="C231" s="12" t="n">
-        <v>117729.0</v>
+        <v>102841.0</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>151.0</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>693.0</v>
+        <v>443.0</v>
       </c>
       <c r="F231" s="4" t="n">
-        <v>540.224</v>
+        <v>393.731</v>
       </c>
       <c r="G231" s="4" t="n">
-        <v>1.78917</v>
+        <v>1.20762</v>
       </c>
       <c r="H231" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J231" s="10" t="n">
-        <v>44173.79696759259</v>
+        <v>44191.86263888889</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B232" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="B232" s="21" t="s">
         <v>643</v>
       </c>
       <c r="C232" s="13" t="n">
-        <v>102841.0</v>
+        <v>190010.0</v>
       </c>
       <c r="D232" s="3" t="n">
-        <v>151.0</v>
+        <v>150.0</v>
       </c>
       <c r="E232" s="3" t="n">
-        <v>443.0</v>
+        <v>322.0</v>
       </c>
       <c r="F232" s="5" t="n">
-        <v>393.731</v>
+        <v>266.78</v>
       </c>
       <c r="G232" s="5" t="n">
-        <v>1.20762</v>
+        <v>2.02846</v>
       </c>
       <c r="H232" s="3" t="n">
         <v>0.0</v>
@@ -10891,62 +10870,62 @@
         <v>644</v>
       </c>
       <c r="J232" s="11" t="n">
-        <v>44191.86263888889</v>
+        <v>41694.96306712963</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B233" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="B233" s="20" t="s">
-        <v>646</v>
-      </c>
       <c r="C233" s="12" t="n">
-        <v>190010.0</v>
+        <v>77072.0</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>150.0</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>322.0</v>
+        <v>582.0</v>
       </c>
       <c r="F233" s="4" t="n">
-        <v>266.78</v>
+        <v>479.936</v>
       </c>
       <c r="G233" s="4" t="n">
-        <v>2.02846</v>
+        <v>1.29235</v>
       </c>
       <c r="H233" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I233" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J233" s="10" t="n">
-        <v>41694.96306712963</v>
+        <v>42808.81625</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B234" s="27" t="s">
         <v>648</v>
       </c>
       <c r="C234" s="13" t="n">
-        <v>77072.0</v>
+        <v>406384.0</v>
       </c>
       <c r="D234" s="3" t="n">
-        <v>150.0</v>
+        <v>149.0</v>
       </c>
       <c r="E234" s="3" t="n">
-        <v>582.0</v>
+        <v>485.0</v>
       </c>
       <c r="F234" s="5" t="n">
-        <v>479.936</v>
+        <v>389.315</v>
       </c>
       <c r="G234" s="5" t="n">
-        <v>1.29235</v>
+        <v>2.55302</v>
       </c>
       <c r="H234" s="3" t="n">
         <v>0.0</v>
@@ -10955,94 +10934,94 @@
         <v>649</v>
       </c>
       <c r="J234" s="11" t="n">
-        <v>42808.81625</v>
+        <v>42923.37496527778</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B235" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="B235" s="26" t="s">
-        <v>651</v>
-      </c>
       <c r="C235" s="12" t="n">
-        <v>406384.0</v>
+        <v>376443.0</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>149.0</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>485.0</v>
+        <v>510.0</v>
       </c>
       <c r="F235" s="4" t="n">
-        <v>389.315</v>
+        <v>425.863</v>
       </c>
       <c r="G235" s="4" t="n">
-        <v>2.55302</v>
+        <v>1.35373</v>
       </c>
       <c r="H235" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J235" s="10" t="n">
-        <v>42923.37496527778</v>
+        <v>44188.819699074076</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="B236" s="27" t="s">
-        <v>653</v>
+        <v>647</v>
+      </c>
+      <c r="B236" s="23" t="s">
+        <v>652</v>
       </c>
       <c r="C236" s="13" t="n">
-        <v>376443.0</v>
+        <v>157511.0</v>
       </c>
       <c r="D236" s="3" t="n">
         <v>149.0</v>
       </c>
       <c r="E236" s="3" t="n">
-        <v>510.0</v>
+        <v>358.0</v>
       </c>
       <c r="F236" s="5" t="n">
-        <v>425.863</v>
+        <v>265.53</v>
       </c>
       <c r="G236" s="5" t="n">
-        <v>1.35373</v>
+        <v>4.02334</v>
       </c>
       <c r="H236" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J236" s="11" t="n">
-        <v>44188.819699074076</v>
+        <v>43864.9509837963</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B237" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B237" s="26" t="s">
         <v>655</v>
       </c>
       <c r="C237" s="12" t="n">
-        <v>157511.0</v>
+        <v>389665.0</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>149.0</v>
+        <v>148.0</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>358.0</v>
+        <v>498.0</v>
       </c>
       <c r="F237" s="4" t="n">
-        <v>265.53</v>
+        <v>397.904</v>
       </c>
       <c r="G237" s="4" t="n">
-        <v>4.02334</v>
+        <v>2.77753</v>
       </c>
       <c r="H237" s="2" t="n">
         <v>0.0</v>
@@ -11051,30 +11030,30 @@
         <v>656</v>
       </c>
       <c r="J237" s="10" t="n">
-        <v>43864.9509837963</v>
+        <v>43636.86314814815</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B238" s="27" t="s">
+      <c r="B238" s="23" t="s">
         <v>658</v>
       </c>
       <c r="C238" s="13" t="n">
-        <v>389665.0</v>
+        <v>304932.0</v>
       </c>
       <c r="D238" s="3" t="n">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="E238" s="3" t="n">
-        <v>498.0</v>
+        <v>381.0</v>
       </c>
       <c r="F238" s="5" t="n">
-        <v>397.904</v>
+        <v>307.528</v>
       </c>
       <c r="G238" s="5" t="n">
-        <v>2.77753</v>
+        <v>2.48152</v>
       </c>
       <c r="H238" s="3" t="n">
         <v>0.0</v>
@@ -11083,30 +11062,30 @@
         <v>659</v>
       </c>
       <c r="J238" s="11" t="n">
-        <v>43636.86314814815</v>
+        <v>42923.594675925924</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="B239" s="22" t="s">
+      <c r="B239" s="24" t="s">
         <v>661</v>
       </c>
       <c r="C239" s="12" t="n">
-        <v>304932.0</v>
+        <v>380525.0</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>147.0</v>
+        <v>146.0</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>381.0</v>
+        <v>463.0</v>
       </c>
       <c r="F239" s="4" t="n">
-        <v>307.528</v>
+        <v>365.725</v>
       </c>
       <c r="G239" s="4" t="n">
-        <v>2.48152</v>
+        <v>1.09679</v>
       </c>
       <c r="H239" s="2" t="n">
         <v>0.0</v>
@@ -11115,62 +11094,62 @@
         <v>662</v>
       </c>
       <c r="J239" s="10" t="n">
-        <v>42923.594675925924</v>
+        <v>43633.804618055554</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B240" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="B240" s="25" t="s">
-        <v>664</v>
-      </c>
       <c r="C240" s="13" t="n">
-        <v>380525.0</v>
+        <v>147822.0</v>
       </c>
       <c r="D240" s="3" t="n">
         <v>146.0</v>
       </c>
       <c r="E240" s="3" t="n">
-        <v>463.0</v>
+        <v>599.0</v>
       </c>
       <c r="F240" s="5" t="n">
-        <v>365.725</v>
+        <v>484.27</v>
       </c>
       <c r="G240" s="5" t="n">
-        <v>1.09679</v>
+        <v>1.67946</v>
       </c>
       <c r="H240" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I240" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J240" s="11" t="n">
-        <v>43633.804618055554</v>
+        <v>43898.34123842593</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="8" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B241" s="28" t="s">
         <v>666</v>
       </c>
       <c r="C241" s="12" t="n">
-        <v>147822.0</v>
+        <v>527128.0</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>146.0</v>
+        <v>145.0</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>599.0</v>
+        <v>594.0</v>
       </c>
       <c r="F241" s="4" t="n">
-        <v>484.27</v>
+        <v>489.8</v>
       </c>
       <c r="G241" s="4" t="n">
-        <v>1.67946</v>
+        <v>1.78713</v>
       </c>
       <c r="H241" s="2" t="n">
         <v>0.0</v>
@@ -11179,126 +11158,126 @@
         <v>667</v>
       </c>
       <c r="J241" s="10" t="n">
-        <v>43898.34123842593</v>
+        <v>43900.944699074076</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B242" s="19" t="s">
         <v>668</v>
       </c>
-      <c r="B242" s="29" t="s">
-        <v>669</v>
-      </c>
       <c r="C242" s="13" t="n">
-        <v>527128.0</v>
+        <v>482956.0</v>
       </c>
       <c r="D242" s="3" t="n">
         <v>145.0</v>
       </c>
       <c r="E242" s="3" t="n">
-        <v>594.0</v>
+        <v>222.0</v>
       </c>
       <c r="F242" s="5" t="n">
-        <v>489.8</v>
+        <v>188.211</v>
       </c>
       <c r="G242" s="5" t="n">
-        <v>1.78713</v>
+        <v>4.91216</v>
       </c>
       <c r="H242" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I242" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J242" s="11" t="n">
-        <v>43900.944699074076</v>
+        <v>43364.926724537036</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="B243" s="18" t="s">
-        <v>671</v>
+        <v>665</v>
+      </c>
+      <c r="B243" s="24" t="s">
+        <v>670</v>
       </c>
       <c r="C243" s="12" t="n">
-        <v>482956.0</v>
+        <v>157698.0</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>145.0</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>222.0</v>
+        <v>473.0</v>
       </c>
       <c r="F243" s="4" t="n">
-        <v>188.211</v>
+        <v>403.819</v>
       </c>
       <c r="G243" s="4" t="n">
-        <v>4.91216</v>
+        <v>1.42695</v>
       </c>
       <c r="H243" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J243" s="10" t="n">
-        <v>43364.926724537036</v>
+        <v>43672.48939814815</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="B244" s="25" t="s">
-        <v>673</v>
+        <v>665</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>672</v>
       </c>
       <c r="C244" s="13" t="n">
-        <v>157698.0</v>
+        <v>132695.0</v>
       </c>
       <c r="D244" s="3" t="n">
         <v>145.0</v>
       </c>
       <c r="E244" s="3" t="n">
-        <v>473.0</v>
+        <v>401.0</v>
       </c>
       <c r="F244" s="5" t="n">
-        <v>403.819</v>
+        <v>334.324</v>
       </c>
       <c r="G244" s="5" t="n">
-        <v>1.42695</v>
+        <v>2.3816</v>
       </c>
       <c r="H244" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I244" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J244" s="11" t="n">
-        <v>43672.48939814815</v>
+        <v>43692.815358796295</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="B245" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="B245" s="24" t="s">
         <v>675</v>
       </c>
       <c r="C245" s="12" t="n">
-        <v>132695.0</v>
+        <v>448356.0</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>145.0</v>
+        <v>144.0</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>401.0</v>
+        <v>418.0</v>
       </c>
       <c r="F245" s="4" t="n">
-        <v>334.324</v>
+        <v>333.764</v>
       </c>
       <c r="G245" s="4" t="n">
-        <v>2.3816</v>
+        <v>1.7425</v>
       </c>
       <c r="H245" s="2" t="n">
         <v>0.0</v>
@@ -11307,62 +11286,62 @@
         <v>676</v>
       </c>
       <c r="J245" s="10" t="n">
-        <v>43692.815358796295</v>
+        <v>43208.51008101852</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B246" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="B246" s="25" t="s">
-        <v>678</v>
-      </c>
       <c r="C246" s="13" t="n">
-        <v>448356.0</v>
+        <v>107860.0</v>
       </c>
       <c r="D246" s="3" t="n">
         <v>144.0</v>
       </c>
       <c r="E246" s="3" t="n">
-        <v>418.0</v>
+        <v>507.0</v>
       </c>
       <c r="F246" s="5" t="n">
-        <v>333.764</v>
+        <v>414.381</v>
       </c>
       <c r="G246" s="5" t="n">
-        <v>1.7425</v>
+        <v>1.91367</v>
       </c>
       <c r="H246" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I246" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J246" s="11" t="n">
-        <v>43208.51008101852</v>
+        <v>43362.382731481484</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="B247" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="B247" s="24" t="s">
         <v>680</v>
       </c>
       <c r="C247" s="12" t="n">
-        <v>107860.0</v>
+        <v>441252.0</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>144.0</v>
+        <v>142.0</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>507.0</v>
+        <v>487.0</v>
       </c>
       <c r="F247" s="4" t="n">
-        <v>414.381</v>
+        <v>412.725</v>
       </c>
       <c r="G247" s="4" t="n">
-        <v>1.91367</v>
+        <v>1.42921</v>
       </c>
       <c r="H247" s="2" t="n">
         <v>0.0</v>
@@ -11371,190 +11350,190 @@
         <v>681</v>
       </c>
       <c r="J247" s="10" t="n">
-        <v>43362.382731481484</v>
+        <v>42671.36982638889</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B248" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="B248" s="25" t="s">
-        <v>683</v>
-      </c>
       <c r="C248" s="13" t="n">
-        <v>441252.0</v>
+        <v>369380.0</v>
       </c>
       <c r="D248" s="3" t="n">
         <v>142.0</v>
       </c>
       <c r="E248" s="3" t="n">
-        <v>487.0</v>
+        <v>491.0</v>
       </c>
       <c r="F248" s="5" t="n">
-        <v>412.725</v>
+        <v>400.626</v>
       </c>
       <c r="G248" s="5" t="n">
-        <v>1.42921</v>
+        <v>1.38919</v>
       </c>
       <c r="H248" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J248" s="11" t="n">
-        <v>42671.36982638889</v>
+        <v>43746.81538194444</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B249" s="24" t="s">
-        <v>685</v>
+        <v>679</v>
+      </c>
+      <c r="B249" s="22" t="s">
+        <v>684</v>
       </c>
       <c r="C249" s="12" t="n">
-        <v>369380.0</v>
+        <v>257422.0</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>142.0</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>491.0</v>
+        <v>344.0</v>
       </c>
       <c r="F249" s="4" t="n">
-        <v>400.626</v>
+        <v>283.912</v>
       </c>
       <c r="G249" s="4" t="n">
-        <v>1.38919</v>
+        <v>3.7388</v>
       </c>
       <c r="H249" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J249" s="10" t="n">
-        <v>43746.81538194444</v>
+        <v>42671.381574074076</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="B250" s="23" t="s">
-        <v>687</v>
+        <v>679</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>686</v>
       </c>
       <c r="C250" s="13" t="n">
-        <v>257422.0</v>
+        <v>200392.0</v>
       </c>
       <c r="D250" s="3" t="n">
         <v>142.0</v>
       </c>
       <c r="E250" s="3" t="n">
-        <v>344.0</v>
+        <v>444.0</v>
       </c>
       <c r="F250" s="5" t="n">
-        <v>283.912</v>
+        <v>358.389</v>
       </c>
       <c r="G250" s="5" t="n">
-        <v>3.7388</v>
+        <v>1.71973</v>
       </c>
       <c r="H250" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I250" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J250" s="11" t="n">
-        <v>42671.381574074076</v>
+        <v>42765.80366898148</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B251" s="24" t="s">
-        <v>689</v>
+        <v>679</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>688</v>
       </c>
       <c r="C251" s="12" t="n">
-        <v>200392.0</v>
+        <v>170287.0</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>142.0</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>444.0</v>
+        <v>499.0</v>
       </c>
       <c r="F251" s="4" t="n">
-        <v>358.389</v>
+        <v>398.912</v>
       </c>
       <c r="G251" s="4" t="n">
-        <v>1.71973</v>
+        <v>2.57936</v>
       </c>
       <c r="H251" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J251" s="10" t="n">
-        <v>42765.80366898148</v>
+        <v>44120.67324074074</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="B252" s="27" t="s">
-        <v>691</v>
+        <v>679</v>
+      </c>
+      <c r="B252" s="23" t="s">
+        <v>690</v>
       </c>
       <c r="C252" s="13" t="n">
-        <v>170287.0</v>
+        <v>134594.0</v>
       </c>
       <c r="D252" s="3" t="n">
         <v>142.0</v>
       </c>
       <c r="E252" s="3" t="n">
-        <v>499.0</v>
+        <v>400.0</v>
       </c>
       <c r="F252" s="5" t="n">
-        <v>398.912</v>
+        <v>323.285</v>
       </c>
       <c r="G252" s="5" t="n">
-        <v>2.57936</v>
+        <v>2.0549</v>
       </c>
       <c r="H252" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I252" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J252" s="11" t="n">
-        <v>44120.67324074074</v>
+        <v>42923.488344907404</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="8" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B253" s="22" t="s">
         <v>693</v>
       </c>
       <c r="C253" s="12" t="n">
-        <v>134594.0</v>
+        <v>439630.0</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="E253" s="2" t="n">
-        <v>400.0</v>
+        <v>399.0</v>
       </c>
       <c r="F253" s="4" t="n">
-        <v>323.285</v>
+        <v>340.145</v>
       </c>
       <c r="G253" s="4" t="n">
-        <v>2.0549</v>
+        <v>1.37754</v>
       </c>
       <c r="H253" s="2" t="n">
         <v>0.0</v>
@@ -11563,62 +11542,62 @@
         <v>694</v>
       </c>
       <c r="J253" s="10" t="n">
-        <v>42923.488344907404</v>
+        <v>44134.638761574075</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B254" s="27" t="s">
         <v>695</v>
       </c>
-      <c r="B254" s="23" t="s">
-        <v>696</v>
-      </c>
       <c r="C254" s="13" t="n">
-        <v>439630.0</v>
+        <v>139052.0</v>
       </c>
       <c r="D254" s="3" t="n">
         <v>141.0</v>
       </c>
       <c r="E254" s="3" t="n">
-        <v>399.0</v>
+        <v>502.0</v>
       </c>
       <c r="F254" s="5" t="n">
-        <v>340.145</v>
+        <v>430.783</v>
       </c>
       <c r="G254" s="5" t="n">
-        <v>1.37754</v>
+        <v>1.21673</v>
       </c>
       <c r="H254" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J254" s="11" t="n">
-        <v>44134.638761574075</v>
+        <v>44054.806493055556</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="B255" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="B255" s="24" t="s">
         <v>698</v>
       </c>
       <c r="C255" s="12" t="n">
-        <v>139052.0</v>
+        <v>430472.0</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>141.0</v>
+        <v>140.0</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>502.0</v>
+        <v>418.0</v>
       </c>
       <c r="F255" s="4" t="n">
-        <v>430.783</v>
+        <v>339.384</v>
       </c>
       <c r="G255" s="4" t="n">
-        <v>1.21673</v>
+        <v>2.65538</v>
       </c>
       <c r="H255" s="2" t="n">
         <v>0.0</v>
@@ -11627,126 +11606,126 @@
         <v>699</v>
       </c>
       <c r="J255" s="10" t="n">
-        <v>44054.806493055556</v>
+        <v>43315.892604166664</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B256" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="B256" s="25" t="s">
-        <v>701</v>
-      </c>
       <c r="C256" s="13" t="n">
-        <v>430472.0</v>
+        <v>427259.0</v>
       </c>
       <c r="D256" s="3" t="n">
         <v>140.0</v>
       </c>
       <c r="E256" s="3" t="n">
-        <v>418.0</v>
+        <v>346.0</v>
       </c>
       <c r="F256" s="5" t="n">
-        <v>339.384</v>
+        <v>265.928</v>
       </c>
       <c r="G256" s="5" t="n">
-        <v>2.65538</v>
+        <v>1.88846</v>
       </c>
       <c r="H256" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I256" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J256" s="11" t="n">
-        <v>43315.892604166664</v>
+        <v>42671.49291666667</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B257" s="20" t="s">
-        <v>703</v>
+        <v>697</v>
+      </c>
+      <c r="B257" s="24" t="s">
+        <v>702</v>
       </c>
       <c r="C257" s="12" t="n">
-        <v>427259.0</v>
+        <v>304549.0</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>140.0</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>346.0</v>
+        <v>485.0</v>
       </c>
       <c r="F257" s="4" t="n">
-        <v>265.928</v>
+        <v>421.982</v>
       </c>
       <c r="G257" s="4" t="n">
-        <v>1.88846</v>
+        <v>1.16797</v>
       </c>
       <c r="H257" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J257" s="10" t="n">
-        <v>42671.49291666667</v>
+        <v>42923.43960648148</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="B258" s="25" t="s">
-        <v>705</v>
+        <v>697</v>
+      </c>
+      <c r="B258" s="27" t="s">
+        <v>704</v>
       </c>
       <c r="C258" s="13" t="n">
-        <v>304549.0</v>
+        <v>101475.0</v>
       </c>
       <c r="D258" s="3" t="n">
         <v>140.0</v>
       </c>
       <c r="E258" s="3" t="n">
-        <v>485.0</v>
+        <v>569.0</v>
       </c>
       <c r="F258" s="5" t="n">
-        <v>421.982</v>
+        <v>474.039</v>
       </c>
       <c r="G258" s="5" t="n">
-        <v>1.16797</v>
+        <v>1.44455</v>
       </c>
       <c r="H258" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I258" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J258" s="11" t="n">
-        <v>42923.43960648148</v>
+        <v>41793.69130787037</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B259" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="B259" s="20" t="s">
         <v>707</v>
       </c>
       <c r="C259" s="12" t="n">
-        <v>101475.0</v>
+        <v>541699.0</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>569.0</v>
+        <v>265.0</v>
       </c>
       <c r="F259" s="4" t="n">
-        <v>474.039</v>
+        <v>204.103</v>
       </c>
       <c r="G259" s="4" t="n">
-        <v>1.44455</v>
+        <v>3.98011</v>
       </c>
       <c r="H259" s="2" t="n">
         <v>0.0</v>
@@ -11755,62 +11734,62 @@
         <v>708</v>
       </c>
       <c r="J259" s="10" t="n">
-        <v>41793.69130787037</v>
+        <v>43865.564039351855</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B260" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="B260" s="21" t="s">
-        <v>710</v>
-      </c>
       <c r="C260" s="13" t="n">
-        <v>541699.0</v>
+        <v>454384.0</v>
       </c>
       <c r="D260" s="3" t="n">
         <v>139.0</v>
       </c>
       <c r="E260" s="3" t="n">
-        <v>265.0</v>
+        <v>338.0</v>
       </c>
       <c r="F260" s="5" t="n">
-        <v>204.103</v>
+        <v>289.107</v>
       </c>
       <c r="G260" s="5" t="n">
-        <v>3.98011</v>
+        <v>1.04564</v>
       </c>
       <c r="H260" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I260" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J260" s="11" t="n">
-        <v>43865.564039351855</v>
+        <v>43944.98305555555</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="B261" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B261" s="22" t="s">
         <v>712</v>
       </c>
       <c r="C261" s="12" t="n">
-        <v>454384.0</v>
+        <v>414741.0</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>139.0</v>
+        <v>138.0</v>
       </c>
       <c r="E261" s="2" t="n">
-        <v>338.0</v>
+        <v>357.0</v>
       </c>
       <c r="F261" s="4" t="n">
-        <v>289.107</v>
+        <v>284.109</v>
       </c>
       <c r="G261" s="4" t="n">
-        <v>1.04564</v>
+        <v>2.19056</v>
       </c>
       <c r="H261" s="2" t="n">
         <v>0.0</v>
@@ -11819,94 +11798,94 @@
         <v>713</v>
       </c>
       <c r="J261" s="10" t="n">
-        <v>43944.98305555555</v>
+        <v>42864.81731481481</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B262" s="27" t="s">
         <v>714</v>
       </c>
-      <c r="B262" s="23" t="s">
-        <v>715</v>
-      </c>
       <c r="C262" s="13" t="n">
-        <v>414741.0</v>
+        <v>166085.0</v>
       </c>
       <c r="D262" s="3" t="n">
         <v>138.0</v>
       </c>
       <c r="E262" s="3" t="n">
-        <v>357.0</v>
+        <v>472.0</v>
       </c>
       <c r="F262" s="5" t="n">
-        <v>284.109</v>
+        <v>361.853</v>
       </c>
       <c r="G262" s="5" t="n">
-        <v>2.19056</v>
+        <v>2.82294</v>
       </c>
       <c r="H262" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I262" s="9" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J262" s="11" t="n">
-        <v>42864.81731481481</v>
+        <v>40515.94677083333</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B263" s="26" t="s">
-        <v>717</v>
+        <v>711</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>716</v>
       </c>
       <c r="C263" s="12" t="n">
-        <v>166085.0</v>
+        <v>161545.0</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>138.0</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>472.0</v>
+        <v>376.0</v>
       </c>
       <c r="F263" s="4" t="n">
-        <v>361.853</v>
+        <v>317.147</v>
       </c>
       <c r="G263" s="4" t="n">
-        <v>2.82294</v>
+        <v>1.62429</v>
       </c>
       <c r="H263" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I263" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J263" s="10" t="n">
-        <v>40515.94677083333</v>
+        <v>43208.54106481482</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="B264" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="B264" s="21" t="s">
         <v>719</v>
       </c>
       <c r="C264" s="13" t="n">
-        <v>161545.0</v>
+        <v>473063.0</v>
       </c>
       <c r="D264" s="3" t="n">
-        <v>138.0</v>
+        <v>137.0</v>
       </c>
       <c r="E264" s="3" t="n">
-        <v>376.0</v>
+        <v>292.0</v>
       </c>
       <c r="F264" s="5" t="n">
-        <v>317.147</v>
+        <v>219.916</v>
       </c>
       <c r="G264" s="5" t="n">
-        <v>1.62429</v>
+        <v>3.92388</v>
       </c>
       <c r="H264" s="3" t="n">
         <v>0.0</v>
@@ -11915,126 +11894,126 @@
         <v>720</v>
       </c>
       <c r="J264" s="11" t="n">
-        <v>43208.54106481482</v>
+        <v>43315.58032407407</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B265" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="B265" s="20" t="s">
-        <v>722</v>
-      </c>
       <c r="C265" s="12" t="n">
-        <v>473063.0</v>
+        <v>408145.0</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>137.0</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>292.0</v>
+        <v>441.0</v>
       </c>
       <c r="F265" s="4" t="n">
-        <v>219.916</v>
+        <v>390.702</v>
       </c>
       <c r="G265" s="4" t="n">
-        <v>3.92388</v>
+        <v>1.23214</v>
       </c>
       <c r="H265" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I265" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J265" s="10" t="n">
-        <v>43315.58032407407</v>
+        <v>43557.96560185185</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="9" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C266" s="13" t="n">
-        <v>408145.0</v>
+        <v>407523.0</v>
       </c>
       <c r="D266" s="3" t="n">
         <v>137.0</v>
       </c>
       <c r="E266" s="3" t="n">
-        <v>441.0</v>
+        <v>444.0</v>
       </c>
       <c r="F266" s="5" t="n">
-        <v>390.702</v>
+        <v>367.743</v>
       </c>
       <c r="G266" s="5" t="n">
-        <v>1.23214</v>
+        <v>2.50773</v>
       </c>
       <c r="H266" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I266" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J266" s="11" t="n">
-        <v>43557.96560185185</v>
+        <v>42846.554710648146</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="B267" s="24" t="s">
-        <v>726</v>
+        <v>718</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>725</v>
       </c>
       <c r="C267" s="12" t="n">
-        <v>407523.0</v>
+        <v>255504.0</v>
       </c>
       <c r="D267" s="2" t="n">
         <v>137.0</v>
       </c>
       <c r="E267" s="2" t="n">
-        <v>444.0</v>
+        <v>411.0</v>
       </c>
       <c r="F267" s="4" t="n">
-        <v>367.743</v>
+        <v>360.182</v>
       </c>
       <c r="G267" s="4" t="n">
-        <v>2.50773</v>
+        <v>1.36241</v>
       </c>
       <c r="H267" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I267" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J267" s="10" t="n">
-        <v>42846.554710648146</v>
+        <v>43005.90039351852</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="9" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B268" s="23" t="s">
         <v>728</v>
       </c>
       <c r="C268" s="13" t="n">
-        <v>255504.0</v>
+        <v>449785.0</v>
       </c>
       <c r="D268" s="3" t="n">
-        <v>137.0</v>
+        <v>136.0</v>
       </c>
       <c r="E268" s="3" t="n">
-        <v>411.0</v>
+        <v>396.0</v>
       </c>
       <c r="F268" s="5" t="n">
-        <v>360.182</v>
+        <v>321.098</v>
       </c>
       <c r="G268" s="5" t="n">
-        <v>1.36241</v>
+        <v>1.67281</v>
       </c>
       <c r="H268" s="3" t="n">
         <v>0.0</v>
@@ -12043,94 +12022,94 @@
         <v>729</v>
       </c>
       <c r="J268" s="11" t="n">
-        <v>43005.90039351852</v>
+        <v>43315.606724537036</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B269" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="B269" s="22" t="s">
-        <v>731</v>
-      </c>
       <c r="C269" s="12" t="n">
-        <v>449785.0</v>
+        <v>449386.0</v>
       </c>
       <c r="D269" s="2" t="n">
         <v>136.0</v>
       </c>
       <c r="E269" s="2" t="n">
-        <v>396.0</v>
+        <v>409.0</v>
       </c>
       <c r="F269" s="4" t="n">
-        <v>321.098</v>
+        <v>346.638</v>
       </c>
       <c r="G269" s="4" t="n">
-        <v>1.67281</v>
+        <v>2.13055</v>
       </c>
       <c r="H269" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I269" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J269" s="10" t="n">
-        <v>43315.606724537036</v>
+        <v>42795.52686342593</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="B270" s="23" t="s">
-        <v>733</v>
+        <v>727</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>732</v>
       </c>
       <c r="C270" s="13" t="n">
-        <v>449386.0</v>
+        <v>207246.0</v>
       </c>
       <c r="D270" s="3" t="n">
         <v>136.0</v>
       </c>
       <c r="E270" s="3" t="n">
-        <v>409.0</v>
+        <v>382.0</v>
       </c>
       <c r="F270" s="5" t="n">
-        <v>346.638</v>
+        <v>285.699</v>
       </c>
       <c r="G270" s="5" t="n">
-        <v>2.13055</v>
+        <v>0.963016</v>
       </c>
       <c r="H270" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I270" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J270" s="11" t="n">
-        <v>42795.52686342593</v>
+        <v>42842.476631944446</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="B271" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="B271" s="24" t="s">
         <v>735</v>
       </c>
       <c r="C271" s="12" t="n">
-        <v>207246.0</v>
+        <v>212081.0</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>382.0</v>
+        <v>503.0</v>
       </c>
       <c r="F271" s="4" t="n">
-        <v>285.699</v>
+        <v>426.883</v>
       </c>
       <c r="G271" s="4" t="n">
-        <v>0.963016</v>
+        <v>1.01244</v>
       </c>
       <c r="H271" s="2" t="n">
         <v>0.0</v>
@@ -12139,30 +12118,30 @@
         <v>736</v>
       </c>
       <c r="J271" s="10" t="n">
-        <v>42842.476631944446</v>
+        <v>44160.79927083333</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B272" s="25" t="s">
+      <c r="B272" s="19" t="s">
         <v>738</v>
       </c>
       <c r="C272" s="13" t="n">
-        <v>212081.0</v>
+        <v>504279.0</v>
       </c>
       <c r="D272" s="3" t="n">
-        <v>135.0</v>
+        <v>133.0</v>
       </c>
       <c r="E272" s="3" t="n">
-        <v>503.0</v>
+        <v>263.0</v>
       </c>
       <c r="F272" s="5" t="n">
-        <v>426.883</v>
+        <v>214.483</v>
       </c>
       <c r="G272" s="5" t="n">
-        <v>1.01244</v>
+        <v>0.955899</v>
       </c>
       <c r="H272" s="3" t="n">
         <v>0.0</v>
@@ -12171,30 +12150,30 @@
         <v>739</v>
       </c>
       <c r="J272" s="11" t="n">
-        <v>44160.79927083333</v>
+        <v>43977.464212962965</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="22" t="s">
         <v>741</v>
       </c>
       <c r="C273" s="12" t="n">
-        <v>504279.0</v>
+        <v>284875.0</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>133.0</v>
+        <v>132.0</v>
       </c>
       <c r="E273" s="2" t="n">
-        <v>263.0</v>
+        <v>363.0</v>
       </c>
       <c r="F273" s="4" t="n">
-        <v>214.483</v>
+        <v>303.195</v>
       </c>
       <c r="G273" s="4" t="n">
-        <v>0.955899</v>
+        <v>1.9459</v>
       </c>
       <c r="H273" s="2" t="n">
         <v>0.0</v>
@@ -12203,7 +12182,7 @@
         <v>742</v>
       </c>
       <c r="J273" s="10" t="n">
-        <v>43977.464212962965</v>
+        <v>42671.37158564815</v>
       </c>
     </row>
     <row r="274">
@@ -12214,19 +12193,19 @@
         <v>744</v>
       </c>
       <c r="C274" s="13" t="n">
-        <v>284875.0</v>
+        <v>437963.0</v>
       </c>
       <c r="D274" s="3" t="n">
-        <v>132.0</v>
+        <v>131.0</v>
       </c>
       <c r="E274" s="3" t="n">
-        <v>363.0</v>
+        <v>387.0</v>
       </c>
       <c r="F274" s="5" t="n">
-        <v>303.195</v>
+        <v>281.237</v>
       </c>
       <c r="G274" s="5" t="n">
-        <v>1.9459</v>
+        <v>3.2616</v>
       </c>
       <c r="H274" s="3" t="n">
         <v>0.0</v>
@@ -12235,222 +12214,222 @@
         <v>745</v>
       </c>
       <c r="J274" s="11" t="n">
-        <v>42671.37158564815</v>
+        <v>43128.491736111115</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B275" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="B275" s="22" t="s">
-        <v>747</v>
-      </c>
       <c r="C275" s="12" t="n">
-        <v>437963.0</v>
+        <v>412789.0</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>131.0</v>
       </c>
       <c r="E275" s="2" t="n">
-        <v>387.0</v>
+        <v>346.0</v>
       </c>
       <c r="F275" s="4" t="n">
-        <v>281.237</v>
+        <v>283.984</v>
       </c>
       <c r="G275" s="4" t="n">
-        <v>3.2616</v>
+        <v>2.16146</v>
       </c>
       <c r="H275" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I275" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J275" s="10" t="n">
-        <v>43128.491736111115</v>
+        <v>42842.29880787037</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C276" s="13" t="n">
-        <v>412789.0</v>
+        <v>265529.0</v>
       </c>
       <c r="D276" s="3" t="n">
         <v>131.0</v>
       </c>
       <c r="E276" s="3" t="n">
-        <v>346.0</v>
+        <v>337.0</v>
       </c>
       <c r="F276" s="5" t="n">
-        <v>283.984</v>
+        <v>280.99</v>
       </c>
       <c r="G276" s="5" t="n">
-        <v>2.16146</v>
+        <v>2.95002</v>
       </c>
       <c r="H276" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I276" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J276" s="11" t="n">
-        <v>42842.29880787037</v>
+        <v>42786.13674768519</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="B277" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="B277" s="18" t="s">
         <v>751</v>
       </c>
       <c r="C277" s="12" t="n">
-        <v>265529.0</v>
+        <v>516294.0</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
       <c r="E277" s="2" t="n">
-        <v>337.0</v>
+        <v>224.0</v>
       </c>
       <c r="F277" s="4" t="n">
-        <v>280.99</v>
+        <v>197.473</v>
       </c>
       <c r="G277" s="4" t="n">
-        <v>2.95002</v>
+        <v>1.09074</v>
       </c>
       <c r="H277" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I277" s="8" t="s">
-        <v>752</v>
+        <v>625</v>
       </c>
       <c r="J277" s="10" t="n">
-        <v>42786.13674768519</v>
+        <v>43945.762974537036</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="B278" s="19" t="s">
-        <v>754</v>
+        <v>750</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>752</v>
       </c>
       <c r="C278" s="13" t="n">
-        <v>516294.0</v>
+        <v>471010.0</v>
       </c>
       <c r="D278" s="3" t="n">
         <v>130.0</v>
       </c>
       <c r="E278" s="3" t="n">
-        <v>224.0</v>
+        <v>515.0</v>
       </c>
       <c r="F278" s="5" t="n">
-        <v>197.473</v>
+        <v>421.701</v>
       </c>
       <c r="G278" s="5" t="n">
-        <v>1.09074</v>
+        <v>1.56288</v>
       </c>
       <c r="H278" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I278" s="9" t="s">
-        <v>628</v>
+        <v>753</v>
       </c>
       <c r="J278" s="11" t="n">
-        <v>43945.762974537036</v>
+        <v>44188.81972222222</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="B279" s="26" t="s">
-        <v>755</v>
+        <v>750</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>754</v>
       </c>
       <c r="C279" s="12" t="n">
-        <v>471010.0</v>
+        <v>390044.0</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>130.0</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>515.0</v>
+        <v>350.0</v>
       </c>
       <c r="F279" s="4" t="n">
-        <v>421.701</v>
+        <v>290.028</v>
       </c>
       <c r="G279" s="4" t="n">
-        <v>1.56288</v>
+        <v>5.0101</v>
       </c>
       <c r="H279" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I279" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J279" s="10" t="n">
-        <v>44188.81972222222</v>
+        <v>43945.80966435185</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="B280" s="23" t="s">
-        <v>757</v>
+        <v>750</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>756</v>
       </c>
       <c r="C280" s="13" t="n">
-        <v>390044.0</v>
+        <v>360254.0</v>
       </c>
       <c r="D280" s="3" t="n">
         <v>130.0</v>
       </c>
       <c r="E280" s="3" t="n">
-        <v>350.0</v>
+        <v>423.0</v>
       </c>
       <c r="F280" s="5" t="n">
-        <v>290.028</v>
+        <v>361.406</v>
       </c>
       <c r="G280" s="5" t="n">
-        <v>5.0101</v>
+        <v>1.75225</v>
       </c>
       <c r="H280" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J280" s="11" t="n">
-        <v>43945.80966435185</v>
+        <v>42999.38652777778</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="B281" s="24" t="s">
+        <v>758</v>
+      </c>
+      <c r="B281" s="28" t="s">
         <v>759</v>
       </c>
       <c r="C281" s="12" t="n">
-        <v>360254.0</v>
+        <v>402002.0</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="E281" s="2" t="n">
-        <v>423.0</v>
+        <v>565.0</v>
       </c>
       <c r="F281" s="4" t="n">
-        <v>361.406</v>
+        <v>430.403</v>
       </c>
       <c r="G281" s="4" t="n">
-        <v>1.75225</v>
+        <v>2.37937</v>
       </c>
       <c r="H281" s="2" t="n">
         <v>0.0</v>
@@ -12459,62 +12438,62 @@
         <v>760</v>
       </c>
       <c r="J281" s="10" t="n">
-        <v>42999.38652777778</v>
+        <v>42433.45043981481</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B282" s="31" t="s">
         <v>761</v>
       </c>
-      <c r="B282" s="29" t="s">
-        <v>762</v>
-      </c>
       <c r="C282" s="13" t="n">
-        <v>402002.0</v>
+        <v>258247.0</v>
       </c>
       <c r="D282" s="3" t="n">
         <v>129.0</v>
       </c>
       <c r="E282" s="3" t="n">
-        <v>565.0</v>
+        <v>677.0</v>
       </c>
       <c r="F282" s="5" t="n">
-        <v>430.403</v>
+        <v>538.242</v>
       </c>
       <c r="G282" s="5" t="n">
-        <v>2.37937</v>
+        <v>2.93448</v>
       </c>
       <c r="H282" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I282" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J282" s="11" t="n">
-        <v>42433.45043981481</v>
+        <v>42927.81732638889</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="B283" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="B283" s="24" t="s">
         <v>764</v>
       </c>
       <c r="C283" s="12" t="n">
-        <v>258247.0</v>
+        <v>56833.0</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>129.0</v>
+        <v>128.0</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>677.0</v>
+        <v>489.0</v>
       </c>
       <c r="F283" s="4" t="n">
-        <v>538.242</v>
+        <v>402.887</v>
       </c>
       <c r="G283" s="4" t="n">
-        <v>2.93448</v>
+        <v>1.30278</v>
       </c>
       <c r="H283" s="2" t="n">
         <v>0.0</v>
@@ -12523,30 +12502,30 @@
         <v>765</v>
       </c>
       <c r="J283" s="10" t="n">
-        <v>42927.81732638889</v>
+        <v>42689.81505787037</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="B284" s="25" t="s">
+      <c r="B284" s="17" t="s">
         <v>767</v>
       </c>
       <c r="C284" s="13" t="n">
-        <v>56833.0</v>
+        <v>449181.0</v>
       </c>
       <c r="D284" s="3" t="n">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="E284" s="3" t="n">
-        <v>489.0</v>
+        <v>153.0</v>
       </c>
       <c r="F284" s="5" t="n">
-        <v>402.887</v>
+        <v>105.848</v>
       </c>
       <c r="G284" s="5" t="n">
-        <v>1.30278</v>
+        <v>6.66051</v>
       </c>
       <c r="H284" s="3" t="n">
         <v>0.0</v>
@@ -12555,94 +12534,94 @@
         <v>768</v>
       </c>
       <c r="J284" s="11" t="n">
-        <v>42689.81505787037</v>
+        <v>42686.87829861111</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="B285" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="B285" s="16" t="s">
-        <v>770</v>
-      </c>
       <c r="C285" s="12" t="n">
-        <v>449181.0</v>
+        <v>317499.0</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>127.0</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>153.0</v>
+        <v>384.0</v>
       </c>
       <c r="F285" s="4" t="n">
-        <v>105.848</v>
+        <v>319.956</v>
       </c>
       <c r="G285" s="4" t="n">
-        <v>6.66051</v>
+        <v>2.35905</v>
       </c>
       <c r="H285" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I285" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J285" s="10" t="n">
-        <v>42686.87829861111</v>
+        <v>43111.80988425926</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="B286" s="23" t="s">
-        <v>772</v>
+        <v>766</v>
+      </c>
+      <c r="B286" s="27" t="s">
+        <v>771</v>
       </c>
       <c r="C286" s="13" t="n">
-        <v>317499.0</v>
+        <v>139149.0</v>
       </c>
       <c r="D286" s="3" t="n">
         <v>127.0</v>
       </c>
       <c r="E286" s="3" t="n">
-        <v>384.0</v>
+        <v>483.0</v>
       </c>
       <c r="F286" s="5" t="n">
-        <v>319.956</v>
+        <v>395.977</v>
       </c>
       <c r="G286" s="5" t="n">
-        <v>2.35905</v>
+        <v>2.46329</v>
       </c>
       <c r="H286" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J286" s="11" t="n">
-        <v>43111.80988425926</v>
+        <v>40494.65416666667</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="B287" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="B287" s="24" t="s">
         <v>774</v>
       </c>
       <c r="C287" s="12" t="n">
-        <v>139149.0</v>
+        <v>441308.0</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="E287" s="2" t="n">
-        <v>483.0</v>
+        <v>447.0</v>
       </c>
       <c r="F287" s="4" t="n">
-        <v>395.977</v>
+        <v>377.569</v>
       </c>
       <c r="G287" s="4" t="n">
-        <v>2.46329</v>
+        <v>2.57872</v>
       </c>
       <c r="H287" s="2" t="n">
         <v>0.0</v>
@@ -12651,94 +12630,94 @@
         <v>775</v>
       </c>
       <c r="J287" s="10" t="n">
-        <v>40494.65416666667</v>
+        <v>42767.719247685185</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B288" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="B288" s="25" t="s">
-        <v>777</v>
-      </c>
       <c r="C288" s="13" t="n">
-        <v>441308.0</v>
+        <v>335275.0</v>
       </c>
       <c r="D288" s="3" t="n">
         <v>126.0</v>
       </c>
       <c r="E288" s="3" t="n">
-        <v>447.0</v>
+        <v>647.0</v>
       </c>
       <c r="F288" s="5" t="n">
-        <v>377.569</v>
+        <v>533.872</v>
       </c>
       <c r="G288" s="5" t="n">
-        <v>2.57872</v>
+        <v>0.83117</v>
       </c>
       <c r="H288" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I288" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J288" s="11" t="n">
-        <v>42767.719247685185</v>
+        <v>42801.81821759259</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="B289" s="28" t="s">
-        <v>779</v>
+        <v>773</v>
+      </c>
+      <c r="B289" s="22" t="s">
+        <v>778</v>
       </c>
       <c r="C289" s="12" t="n">
-        <v>335275.0</v>
+        <v>124082.0</v>
       </c>
       <c r="D289" s="2" t="n">
         <v>126.0</v>
       </c>
       <c r="E289" s="2" t="n">
-        <v>647.0</v>
+        <v>440.0</v>
       </c>
       <c r="F289" s="4" t="n">
-        <v>533.872</v>
+        <v>373.488</v>
       </c>
       <c r="G289" s="4" t="n">
-        <v>0.83117</v>
+        <v>1.45089</v>
       </c>
       <c r="H289" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I289" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J289" s="10" t="n">
-        <v>42801.81821759259</v>
+        <v>44074.804074074076</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="9" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B290" s="23" t="s">
         <v>781</v>
       </c>
       <c r="C290" s="13" t="n">
-        <v>124082.0</v>
+        <v>303516.0</v>
       </c>
       <c r="D290" s="3" t="n">
-        <v>126.0</v>
+        <v>125.0</v>
       </c>
       <c r="E290" s="3" t="n">
-        <v>440.0</v>
+        <v>377.0</v>
       </c>
       <c r="F290" s="5" t="n">
-        <v>373.488</v>
+        <v>292.335</v>
       </c>
       <c r="G290" s="5" t="n">
-        <v>1.45089</v>
+        <v>1.88439</v>
       </c>
       <c r="H290" s="3" t="n">
         <v>0.0</v>
@@ -12747,30 +12726,30 @@
         <v>782</v>
       </c>
       <c r="J290" s="11" t="n">
-        <v>44074.804074074076</v>
+        <v>43241.44943287037</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B291" s="22" t="s">
+      <c r="B291" s="24" t="s">
         <v>784</v>
       </c>
       <c r="C291" s="12" t="n">
-        <v>303516.0</v>
+        <v>534144.0</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>125.0</v>
+        <v>123.0</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>377.0</v>
+        <v>527.0</v>
       </c>
       <c r="F291" s="4" t="n">
-        <v>292.335</v>
+        <v>463.822</v>
       </c>
       <c r="G291" s="4" t="n">
-        <v>1.88439</v>
+        <v>1.01038</v>
       </c>
       <c r="H291" s="2" t="n">
         <v>0.0</v>
@@ -12779,94 +12758,94 @@
         <v>785</v>
       </c>
       <c r="J291" s="10" t="n">
-        <v>43241.44943287037</v>
+        <v>44134.66201388889</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B292" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="B292" s="25" t="s">
-        <v>787</v>
-      </c>
       <c r="C292" s="13" t="n">
-        <v>534144.0</v>
+        <v>459497.0</v>
       </c>
       <c r="D292" s="3" t="n">
         <v>123.0</v>
       </c>
       <c r="E292" s="3" t="n">
-        <v>527.0</v>
+        <v>328.0</v>
       </c>
       <c r="F292" s="5" t="n">
-        <v>463.822</v>
+        <v>249.197</v>
       </c>
       <c r="G292" s="5" t="n">
-        <v>1.01038</v>
+        <v>2.46826</v>
       </c>
       <c r="H292" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I292" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J292" s="11" t="n">
-        <v>44134.66201388889</v>
+        <v>42848.77945601852</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="8" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C293" s="12" t="n">
-        <v>459497.0</v>
+        <v>357579.0</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>123.0</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>328.0</v>
+        <v>398.0</v>
       </c>
       <c r="F293" s="4" t="n">
-        <v>249.197</v>
+        <v>292.603</v>
       </c>
       <c r="G293" s="4" t="n">
-        <v>2.46826</v>
+        <v>2.29149</v>
       </c>
       <c r="H293" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I293" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J293" s="10" t="n">
-        <v>42848.77945601852</v>
+        <v>43339.81202546296</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="B294" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="B294" s="21" t="s">
         <v>791</v>
       </c>
       <c r="C294" s="13" t="n">
-        <v>357579.0</v>
+        <v>371004.0</v>
       </c>
       <c r="D294" s="3" t="n">
-        <v>123.0</v>
+        <v>122.0</v>
       </c>
       <c r="E294" s="3" t="n">
-        <v>398.0</v>
+        <v>325.0</v>
       </c>
       <c r="F294" s="5" t="n">
-        <v>292.603</v>
+        <v>257.887</v>
       </c>
       <c r="G294" s="5" t="n">
-        <v>2.29149</v>
+        <v>2.9043</v>
       </c>
       <c r="H294" s="3" t="n">
         <v>0.0</v>
@@ -12875,62 +12854,62 @@
         <v>792</v>
       </c>
       <c r="J294" s="11" t="n">
-        <v>43339.81202546296</v>
+        <v>43945.61528935185</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="B295" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="B295" s="20" t="s">
-        <v>794</v>
-      </c>
       <c r="C295" s="12" t="n">
-        <v>371004.0</v>
+        <v>169576.0</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>122.0</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>325.0</v>
+        <v>517.0</v>
       </c>
       <c r="F295" s="4" t="n">
-        <v>257.887</v>
+        <v>435.895</v>
       </c>
       <c r="G295" s="4" t="n">
-        <v>2.9043</v>
+        <v>1.48534</v>
       </c>
       <c r="H295" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I295" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J295" s="10" t="n">
-        <v>43945.61528935185</v>
+        <v>43543.81423611111</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="B296" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="B296" s="25" t="s">
         <v>796</v>
       </c>
       <c r="C296" s="13" t="n">
-        <v>169576.0</v>
+        <v>492643.0</v>
       </c>
       <c r="D296" s="3" t="n">
-        <v>122.0</v>
+        <v>121.0</v>
       </c>
       <c r="E296" s="3" t="n">
-        <v>517.0</v>
+        <v>351.0</v>
       </c>
       <c r="F296" s="5" t="n">
-        <v>435.895</v>
+        <v>296.514</v>
       </c>
       <c r="G296" s="5" t="n">
-        <v>1.48534</v>
+        <v>2.23989</v>
       </c>
       <c r="H296" s="3" t="n">
         <v>0.0</v>
@@ -12939,94 +12918,94 @@
         <v>797</v>
       </c>
       <c r="J296" s="11" t="n">
-        <v>43543.81423611111</v>
+        <v>43767.81071759259</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B297" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="B297" s="24" t="s">
-        <v>799</v>
-      </c>
       <c r="C297" s="12" t="n">
-        <v>492643.0</v>
+        <v>122500.0</v>
       </c>
       <c r="D297" s="2" t="n">
         <v>121.0</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>351.0</v>
+        <v>389.0</v>
       </c>
       <c r="F297" s="4" t="n">
-        <v>296.514</v>
+        <v>312.974</v>
       </c>
       <c r="G297" s="4" t="n">
-        <v>2.23989</v>
+        <v>2.02672</v>
       </c>
       <c r="H297" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I297" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J297" s="10" t="n">
-        <v>43767.81071759259</v>
+        <v>40476.44803240741</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="B298" s="23" t="s">
-        <v>801</v>
+        <v>795</v>
+      </c>
+      <c r="B298" s="27" t="s">
+        <v>800</v>
       </c>
       <c r="C298" s="13" t="n">
-        <v>122500.0</v>
+        <v>28044.0</v>
       </c>
       <c r="D298" s="3" t="n">
         <v>121.0</v>
       </c>
       <c r="E298" s="3" t="n">
-        <v>389.0</v>
+        <v>539.0</v>
       </c>
       <c r="F298" s="5" t="n">
-        <v>312.974</v>
+        <v>428.153</v>
       </c>
       <c r="G298" s="5" t="n">
-        <v>2.02672</v>
+        <v>3.31074</v>
       </c>
       <c r="H298" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I298" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J298" s="11" t="n">
-        <v>40476.44803240741</v>
+        <v>43662.82129629629</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="B299" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="B299" s="16" t="s">
         <v>803</v>
       </c>
       <c r="C299" s="12" t="n">
-        <v>28044.0</v>
+        <v>578282.0</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>121.0</v>
+        <v>120.0</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>539.0</v>
+        <v>118.0</v>
       </c>
       <c r="F299" s="4" t="n">
-        <v>428.153</v>
+        <v>94.5141</v>
       </c>
       <c r="G299" s="4" t="n">
-        <v>3.31074</v>
+        <v>6.87487</v>
       </c>
       <c r="H299" s="2" t="n">
         <v>0.0</v>
@@ -13035,62 +13014,62 @@
         <v>804</v>
       </c>
       <c r="J299" s="10" t="n">
-        <v>43662.82129629629</v>
+        <v>44027.9278587963</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B300" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="B300" s="17" t="s">
-        <v>806</v>
-      </c>
       <c r="C300" s="13" t="n">
-        <v>578282.0</v>
+        <v>174087.0</v>
       </c>
       <c r="D300" s="3" t="n">
         <v>120.0</v>
       </c>
       <c r="E300" s="3" t="n">
-        <v>118.0</v>
+        <v>303.0</v>
       </c>
       <c r="F300" s="5" t="n">
-        <v>94.5141</v>
+        <v>229.329</v>
       </c>
       <c r="G300" s="5" t="n">
-        <v>6.87487</v>
+        <v>1.30471</v>
       </c>
       <c r="H300" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I300" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J300" s="11" t="n">
-        <v>44027.9278587963</v>
+        <v>42361.43232638889</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="B301" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="B301" s="22" t="s">
         <v>808</v>
       </c>
       <c r="C301" s="12" t="n">
-        <v>301905.0</v>
+        <v>454326.0</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>461.0</v>
+        <v>438.0</v>
       </c>
       <c r="F301" s="4" t="n">
-        <v>386.551</v>
+        <v>354.3</v>
       </c>
       <c r="G301" s="4" t="n">
-        <v>2.43198</v>
+        <v>1.81338</v>
       </c>
       <c r="H301" s="2" t="n">
         <v>0.0</v>
@@ -13099,30 +13078,30 @@
         <v>809</v>
       </c>
       <c r="J301" s="10" t="n">
-        <v>43101.0</v>
+        <v>43369.59135416667</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="B302" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="B302" s="23" t="s">
         <v>810</v>
       </c>
       <c r="C302" s="13" t="n">
-        <v>174087.0</v>
+        <v>449274.0</v>
       </c>
       <c r="D302" s="3" t="n">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="E302" s="3" t="n">
-        <v>303.0</v>
+        <v>379.0</v>
       </c>
       <c r="F302" s="5" t="n">
-        <v>229.329</v>
+        <v>327.498</v>
       </c>
       <c r="G302" s="5" t="n">
-        <v>1.30471</v>
+        <v>1.32762</v>
       </c>
       <c r="H302" s="3" t="n">
         <v>0.0</v>
@@ -13131,190 +13110,190 @@
         <v>811</v>
       </c>
       <c r="J302" s="11" t="n">
-        <v>42361.43232638889</v>
+        <v>42672.58696759259</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B303" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="B303" s="22" t="s">
-        <v>813</v>
-      </c>
       <c r="C303" s="12" t="n">
-        <v>454326.0</v>
+        <v>413575.0</v>
       </c>
       <c r="D303" s="2" t="n">
         <v>119.0</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>438.0</v>
+        <v>340.0</v>
       </c>
       <c r="F303" s="4" t="n">
-        <v>354.3</v>
+        <v>304.448</v>
       </c>
       <c r="G303" s="4" t="n">
-        <v>1.81338</v>
+        <v>1.37894</v>
       </c>
       <c r="H303" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I303" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J303" s="10" t="n">
-        <v>43369.59135416667</v>
+        <v>42842.654953703706</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="B304" s="23" t="s">
-        <v>815</v>
+        <v>807</v>
+      </c>
+      <c r="B304" s="25" t="s">
+        <v>814</v>
       </c>
       <c r="C304" s="13" t="n">
-        <v>449274.0</v>
+        <v>388616.0</v>
       </c>
       <c r="D304" s="3" t="n">
         <v>119.0</v>
       </c>
       <c r="E304" s="3" t="n">
-        <v>379.0</v>
+        <v>466.0</v>
       </c>
       <c r="F304" s="5" t="n">
-        <v>327.498</v>
+        <v>394.738</v>
       </c>
       <c r="G304" s="5" t="n">
-        <v>1.32762</v>
+        <v>3.36405</v>
       </c>
       <c r="H304" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I304" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J304" s="11" t="n">
-        <v>42672.58696759259</v>
+        <v>43767.81462962963</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="B305" s="22" t="s">
-        <v>817</v>
+        <v>807</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>816</v>
       </c>
       <c r="C305" s="12" t="n">
-        <v>413575.0</v>
+        <v>351036.0</v>
       </c>
       <c r="D305" s="2" t="n">
         <v>119.0</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>340.0</v>
+        <v>282.0</v>
       </c>
       <c r="F305" s="4" t="n">
-        <v>304.448</v>
+        <v>228.732</v>
       </c>
       <c r="G305" s="4" t="n">
-        <v>1.37894</v>
+        <v>3.0084</v>
       </c>
       <c r="H305" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I305" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J305" s="10" t="n">
-        <v>42842.654953703706</v>
+        <v>43774.815150462964</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="B306" s="25" t="s">
-        <v>819</v>
+        <v>807</v>
+      </c>
+      <c r="B306" s="21" t="s">
+        <v>818</v>
       </c>
       <c r="C306" s="13" t="n">
-        <v>388616.0</v>
+        <v>344095.0</v>
       </c>
       <c r="D306" s="3" t="n">
         <v>119.0</v>
       </c>
       <c r="E306" s="3" t="n">
-        <v>466.0</v>
+        <v>349.0</v>
       </c>
       <c r="F306" s="5" t="n">
-        <v>394.738</v>
+        <v>296.444</v>
       </c>
       <c r="G306" s="5" t="n">
-        <v>3.36405</v>
+        <v>2.86934</v>
       </c>
       <c r="H306" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J306" s="11" t="n">
-        <v>43767.81462962963</v>
+        <v>42914.61252314815</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="B307" s="20" t="s">
-        <v>821</v>
+        <v>807</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>820</v>
       </c>
       <c r="C307" s="12" t="n">
-        <v>351036.0</v>
+        <v>136776.0</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>119.0</v>
       </c>
       <c r="E307" s="2" t="n">
-        <v>282.0</v>
+        <v>412.0</v>
       </c>
       <c r="F307" s="4" t="n">
-        <v>228.732</v>
+        <v>337.435</v>
       </c>
       <c r="G307" s="4" t="n">
-        <v>3.0084</v>
+        <v>2.61636</v>
       </c>
       <c r="H307" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I307" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J307" s="10" t="n">
-        <v>43774.815150462964</v>
+        <v>44184.861666666664</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="B308" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="B308" s="23" t="s">
         <v>823</v>
       </c>
       <c r="C308" s="13" t="n">
-        <v>344095.0</v>
+        <v>449164.0</v>
       </c>
       <c r="D308" s="3" t="n">
-        <v>119.0</v>
+        <v>117.0</v>
       </c>
       <c r="E308" s="3" t="n">
-        <v>349.0</v>
+        <v>338.0</v>
       </c>
       <c r="F308" s="5" t="n">
-        <v>296.444</v>
+        <v>269.273</v>
       </c>
       <c r="G308" s="5" t="n">
-        <v>2.86934</v>
+        <v>4.21244</v>
       </c>
       <c r="H308" s="3" t="n">
         <v>0.0</v>
@@ -13323,30 +13302,30 @@
         <v>824</v>
       </c>
       <c r="J308" s="11" t="n">
-        <v>42914.61252314815</v>
+        <v>42923.54331018519</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="8" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="B309" s="24" t="s">
         <v>825</v>
       </c>
       <c r="C309" s="12" t="n">
-        <v>136776.0</v>
+        <v>254329.0</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>119.0</v>
+        <v>117.0</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>412.0</v>
+        <v>399.0</v>
       </c>
       <c r="F309" s="4" t="n">
-        <v>337.435</v>
+        <v>334.322</v>
       </c>
       <c r="G309" s="4" t="n">
-        <v>2.61636</v>
+        <v>2.12647</v>
       </c>
       <c r="H309" s="2" t="n">
         <v>0.0</v>
@@ -13355,62 +13334,62 @@
         <v>826</v>
       </c>
       <c r="J309" s="10" t="n">
-        <v>44184.861666666664</v>
+        <v>41817.97819444445</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B310" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="B310" s="23" t="s">
-        <v>828</v>
-      </c>
       <c r="C310" s="13" t="n">
-        <v>449164.0</v>
+        <v>149489.0</v>
       </c>
       <c r="D310" s="3" t="n">
         <v>117.0</v>
       </c>
       <c r="E310" s="3" t="n">
-        <v>338.0</v>
+        <v>393.0</v>
       </c>
       <c r="F310" s="5" t="n">
-        <v>269.273</v>
+        <v>333.448</v>
       </c>
       <c r="G310" s="5" t="n">
-        <v>4.21244</v>
+        <v>0.78084</v>
       </c>
       <c r="H310" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J310" s="11" t="n">
-        <v>42923.54331018519</v>
+        <v>41378.80784722222</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="B311" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="B311" s="20" t="s">
         <v>830</v>
       </c>
       <c r="C311" s="12" t="n">
-        <v>254329.0</v>
+        <v>527792.0</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>399.0</v>
+        <v>300.0</v>
       </c>
       <c r="F311" s="4" t="n">
-        <v>334.322</v>
+        <v>247.615</v>
       </c>
       <c r="G311" s="4" t="n">
-        <v>2.12647</v>
+        <v>2.20461</v>
       </c>
       <c r="H311" s="2" t="n">
         <v>0.0</v>
@@ -13419,30 +13398,30 @@
         <v>831</v>
       </c>
       <c r="J311" s="10" t="n">
-        <v>41817.97819444445</v>
+        <v>43518.57879629629</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="B312" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="B312" s="21" t="s">
         <v>832</v>
       </c>
       <c r="C312" s="13" t="n">
-        <v>149489.0</v>
+        <v>455650.0</v>
       </c>
       <c r="D312" s="3" t="n">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="E312" s="3" t="n">
-        <v>393.0</v>
+        <v>304.0</v>
       </c>
       <c r="F312" s="5" t="n">
-        <v>333.448</v>
+        <v>257.428</v>
       </c>
       <c r="G312" s="5" t="n">
-        <v>0.78084</v>
+        <v>2.10071</v>
       </c>
       <c r="H312" s="3" t="n">
         <v>0.0</v>
@@ -13451,30 +13430,30 @@
         <v>833</v>
       </c>
       <c r="J312" s="11" t="n">
-        <v>41378.80784722222</v>
+        <v>43843.45832175926</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="B313" s="20" t="s">
+      <c r="B313" s="16" t="s">
         <v>835</v>
       </c>
       <c r="C313" s="12" t="n">
-        <v>527792.0</v>
+        <v>436419.0</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>300.0</v>
+        <v>175.0</v>
       </c>
       <c r="F313" s="4" t="n">
-        <v>247.615</v>
+        <v>135.649</v>
       </c>
       <c r="G313" s="4" t="n">
-        <v>2.20461</v>
+        <v>2.83363</v>
       </c>
       <c r="H313" s="2" t="n">
         <v>0.0</v>
@@ -13483,30 +13462,30 @@
         <v>836</v>
       </c>
       <c r="J313" s="10" t="n">
-        <v>43518.57879629629</v>
+        <v>43356.31883101852</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="B314" s="21" t="s">
+      <c r="B314" s="27" t="s">
         <v>837</v>
       </c>
       <c r="C314" s="13" t="n">
-        <v>455650.0</v>
+        <v>369940.0</v>
       </c>
       <c r="D314" s="3" t="n">
-        <v>116.0</v>
+        <v>115.0</v>
       </c>
       <c r="E314" s="3" t="n">
-        <v>304.0</v>
+        <v>512.0</v>
       </c>
       <c r="F314" s="5" t="n">
-        <v>257.428</v>
+        <v>428.692</v>
       </c>
       <c r="G314" s="5" t="n">
-        <v>2.10071</v>
+        <v>3.25909</v>
       </c>
       <c r="H314" s="3" t="n">
         <v>0.0</v>
@@ -13515,94 +13494,94 @@
         <v>838</v>
       </c>
       <c r="J314" s="11" t="n">
-        <v>43843.45832175926</v>
+        <v>42552.384930555556</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B315" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="B315" s="14" t="s">
-        <v>840</v>
-      </c>
       <c r="C315" s="12" t="n">
-        <v>492507.0</v>
+        <v>227617.0</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>115.0</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>256.0</v>
+        <v>209.0</v>
       </c>
       <c r="F315" s="4" t="n">
-        <v>222.087</v>
+        <v>173.686</v>
       </c>
       <c r="G315" s="4" t="n">
-        <v>3.30912</v>
+        <v>4.55826</v>
       </c>
       <c r="H315" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I315" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J315" s="10" t="n">
-        <v>43354.840833333335</v>
+        <v>40515.72928240741</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="B316" s="17" t="s">
-        <v>842</v>
+        <v>834</v>
+      </c>
+      <c r="B316" s="25" t="s">
+        <v>841</v>
       </c>
       <c r="C316" s="13" t="n">
-        <v>436419.0</v>
+        <v>100764.0</v>
       </c>
       <c r="D316" s="3" t="n">
         <v>115.0</v>
       </c>
       <c r="E316" s="3" t="n">
-        <v>175.0</v>
+        <v>407.0</v>
       </c>
       <c r="F316" s="5" t="n">
-        <v>135.649</v>
+        <v>341.145</v>
       </c>
       <c r="G316" s="5" t="n">
-        <v>2.83363</v>
+        <v>2.57142</v>
       </c>
       <c r="H316" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I316" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J316" s="11" t="n">
-        <v>43356.31883101852</v>
+        <v>42552.30060185185</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="B317" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="B317" s="18" t="s">
         <v>844</v>
       </c>
       <c r="C317" s="12" t="n">
-        <v>369940.0</v>
+        <v>501171.0</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>512.0</v>
+        <v>187.0</v>
       </c>
       <c r="F317" s="4" t="n">
-        <v>428.692</v>
+        <v>149.346</v>
       </c>
       <c r="G317" s="4" t="n">
-        <v>3.25909</v>
+        <v>2.81896</v>
       </c>
       <c r="H317" s="2" t="n">
         <v>0.0</v>
@@ -13611,30 +13590,30 @@
         <v>845</v>
       </c>
       <c r="J317" s="10" t="n">
-        <v>42552.384930555556</v>
+        <v>43001.65818287037</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="B318" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="B318" s="25" t="s">
         <v>846</v>
       </c>
       <c r="C318" s="13" t="n">
-        <v>227617.0</v>
+        <v>454434.0</v>
       </c>
       <c r="D318" s="3" t="n">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="E318" s="3" t="n">
-        <v>209.0</v>
+        <v>458.0</v>
       </c>
       <c r="F318" s="5" t="n">
-        <v>173.686</v>
+        <v>385.982</v>
       </c>
       <c r="G318" s="5" t="n">
-        <v>4.55826</v>
+        <v>2.0058</v>
       </c>
       <c r="H318" s="3" t="n">
         <v>0.0</v>
@@ -13643,30 +13622,30 @@
         <v>847</v>
       </c>
       <c r="J318" s="11" t="n">
-        <v>40515.72928240741</v>
+        <v>43672.946284722224</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="8" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B319" s="24" t="s">
         <v>848</v>
       </c>
       <c r="C319" s="12" t="n">
-        <v>100764.0</v>
+        <v>307939.0</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>407.0</v>
+        <v>492.0</v>
       </c>
       <c r="F319" s="4" t="n">
-        <v>341.145</v>
+        <v>399.861</v>
       </c>
       <c r="G319" s="4" t="n">
-        <v>2.57142</v>
+        <v>1.85681</v>
       </c>
       <c r="H319" s="2" t="n">
         <v>0.0</v>
@@ -13675,30 +13654,30 @@
         <v>849</v>
       </c>
       <c r="J319" s="10" t="n">
-        <v>42552.30060185185</v>
+        <v>44134.31202546296</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="B320" s="19" t="s">
+      <c r="B320" s="23" t="s">
         <v>851</v>
       </c>
       <c r="C320" s="13" t="n">
-        <v>501171.0</v>
+        <v>385033.0</v>
       </c>
       <c r="D320" s="3" t="n">
-        <v>114.0</v>
+        <v>113.0</v>
       </c>
       <c r="E320" s="3" t="n">
-        <v>187.0</v>
+        <v>234.0</v>
       </c>
       <c r="F320" s="5" t="n">
-        <v>149.346</v>
+        <v>190.309</v>
       </c>
       <c r="G320" s="5" t="n">
-        <v>2.81896</v>
+        <v>2.59234</v>
       </c>
       <c r="H320" s="3" t="n">
         <v>0.0</v>
@@ -13707,190 +13686,190 @@
         <v>852</v>
       </c>
       <c r="J320" s="11" t="n">
-        <v>43001.65818287037</v>
+        <v>42795.81078703704</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="B321" s="24" t="s">
         <v>853</v>
       </c>
+      <c r="B321" s="22" t="s">
+        <v>854</v>
+      </c>
       <c r="C321" s="12" t="n">
-        <v>454434.0</v>
+        <v>483173.0</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>114.0</v>
+        <v>112.0</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>458.0</v>
+        <v>372.0</v>
       </c>
       <c r="F321" s="4" t="n">
-        <v>385.982</v>
+        <v>251.148</v>
       </c>
       <c r="G321" s="4" t="n">
-        <v>2.0058</v>
+        <v>3.12146</v>
       </c>
       <c r="H321" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I321" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="J321" s="10" t="n">
-        <v>43672.946284722224</v>
+        <v>44033.816296296296</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="B322" s="25" t="s">
-        <v>855</v>
+        <v>856</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>857</v>
       </c>
       <c r="C322" s="13" t="n">
-        <v>307939.0</v>
+        <v>399324.0</v>
       </c>
       <c r="D322" s="3" t="n">
-        <v>114.0</v>
+        <v>111.0</v>
       </c>
       <c r="E322" s="3" t="n">
-        <v>492.0</v>
+        <v>253.0</v>
       </c>
       <c r="F322" s="5" t="n">
-        <v>399.861</v>
+        <v>169.915</v>
       </c>
       <c r="G322" s="5" t="n">
-        <v>1.85681</v>
+        <v>1.99114</v>
       </c>
       <c r="H322" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I322" s="9" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="J322" s="11" t="n">
-        <v>44134.31202546296</v>
+        <v>43861.37158564815</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="B323" s="22" t="s">
-        <v>858</v>
+        <v>859</v>
+      </c>
+      <c r="B323" s="24" t="s">
+        <v>860</v>
       </c>
       <c r="C323" s="12" t="n">
-        <v>385033.0</v>
+        <v>484090.0</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>113.0</v>
+        <v>110.0</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>234.0</v>
+        <v>425.0</v>
       </c>
       <c r="F323" s="4" t="n">
-        <v>190.309</v>
+        <v>329.652</v>
       </c>
       <c r="G323" s="4" t="n">
-        <v>2.59234</v>
+        <v>2.26426</v>
       </c>
       <c r="H323" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I323" s="8" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J323" s="10" t="n">
-        <v>42795.81078703704</v>
+        <v>43316.413298611114</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="B324" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
+      </c>
+      <c r="B324" s="21" t="s">
+        <v>862</v>
       </c>
       <c r="C324" s="13" t="n">
-        <v>483173.0</v>
+        <v>419627.0</v>
       </c>
       <c r="D324" s="3" t="n">
-        <v>112.0</v>
+        <v>110.0</v>
       </c>
       <c r="E324" s="3" t="n">
-        <v>372.0</v>
+        <v>261.0</v>
       </c>
       <c r="F324" s="5" t="n">
-        <v>251.148</v>
+        <v>211.963</v>
       </c>
       <c r="G324" s="5" t="n">
-        <v>3.12146</v>
+        <v>2.75328</v>
       </c>
       <c r="H324" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I324" s="9" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J324" s="11" t="n">
-        <v>44033.816296296296</v>
+        <v>43315.64104166667</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="B325" s="18" t="s">
         <v>864</v>
       </c>
+      <c r="B325" s="22" t="s">
+        <v>865</v>
+      </c>
       <c r="C325" s="12" t="n">
-        <v>399324.0</v>
+        <v>473039.0</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>111.0</v>
+        <v>109.0</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>253.0</v>
+        <v>412.0</v>
       </c>
       <c r="F325" s="4" t="n">
-        <v>169.915</v>
+        <v>314.657</v>
       </c>
       <c r="G325" s="4" t="n">
-        <v>1.99114</v>
+        <v>3.42325</v>
       </c>
       <c r="H325" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I325" s="8" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J325" s="10" t="n">
-        <v>43861.37158564815</v>
+        <v>44134.82755787037</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B326" s="25" t="s">
         <v>867</v>
       </c>
       <c r="C326" s="13" t="n">
-        <v>484090.0</v>
+        <v>396056.0</v>
       </c>
       <c r="D326" s="3" t="n">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
       <c r="E326" s="3" t="n">
-        <v>425.0</v>
+        <v>451.0</v>
       </c>
       <c r="F326" s="5" t="n">
-        <v>329.652</v>
+        <v>365.234</v>
       </c>
       <c r="G326" s="5" t="n">
-        <v>2.26426</v>
+        <v>1.49034</v>
       </c>
       <c r="H326" s="3" t="n">
         <v>0.0</v>
@@ -13899,30 +13878,30 @@
         <v>868</v>
       </c>
       <c r="J326" s="11" t="n">
-        <v>43316.413298611114</v>
+        <v>43269.80564814815</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="B327" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="B327" s="22" t="s">
         <v>869</v>
       </c>
       <c r="C327" s="12" t="n">
-        <v>419627.0</v>
+        <v>375474.0</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
       <c r="E327" s="2" t="n">
-        <v>261.0</v>
+        <v>374.0</v>
       </c>
       <c r="F327" s="4" t="n">
-        <v>211.963</v>
+        <v>310.55</v>
       </c>
       <c r="G327" s="4" t="n">
-        <v>2.75328</v>
+        <v>1.93538</v>
       </c>
       <c r="H327" s="2" t="n">
         <v>0.0</v>
@@ -13931,62 +13910,62 @@
         <v>870</v>
       </c>
       <c r="J327" s="10" t="n">
-        <v>43315.64104166667</v>
+        <v>43241.80488425926</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="B328" s="25" t="s">
         <v>871</v>
       </c>
-      <c r="B328" s="23" t="s">
-        <v>872</v>
-      </c>
       <c r="C328" s="13" t="n">
-        <v>473039.0</v>
+        <v>218579.0</v>
       </c>
       <c r="D328" s="3" t="n">
         <v>109.0</v>
       </c>
       <c r="E328" s="3" t="n">
-        <v>412.0</v>
+        <v>460.0</v>
       </c>
       <c r="F328" s="5" t="n">
-        <v>314.657</v>
+        <v>381.074</v>
       </c>
       <c r="G328" s="5" t="n">
-        <v>3.42325</v>
+        <v>1.80123</v>
       </c>
       <c r="H328" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I328" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J328" s="11" t="n">
-        <v>44134.82755787037</v>
+        <v>44007.058333333334</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="B329" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B329" s="20" t="s">
         <v>874</v>
       </c>
       <c r="C329" s="12" t="n">
-        <v>396056.0</v>
+        <v>492342.0</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>451.0</v>
+        <v>345.0</v>
       </c>
       <c r="F329" s="4" t="n">
-        <v>365.234</v>
+        <v>269.483</v>
       </c>
       <c r="G329" s="4" t="n">
-        <v>1.49034</v>
+        <v>3.68609</v>
       </c>
       <c r="H329" s="2" t="n">
         <v>0.0</v>
@@ -13995,30 +13974,30 @@
         <v>875</v>
       </c>
       <c r="J329" s="10" t="n">
-        <v>43269.80564814815</v>
+        <v>43595.409895833334</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="9" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B330" s="23" t="s">
         <v>876</v>
       </c>
       <c r="C330" s="13" t="n">
-        <v>375474.0</v>
+        <v>454337.0</v>
       </c>
       <c r="D330" s="3" t="n">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="E330" s="3" t="n">
-        <v>374.0</v>
+        <v>346.0</v>
       </c>
       <c r="F330" s="5" t="n">
-        <v>310.55</v>
+        <v>273.041</v>
       </c>
       <c r="G330" s="5" t="n">
-        <v>1.93538</v>
+        <v>3.90386</v>
       </c>
       <c r="H330" s="3" t="n">
         <v>0.0</v>
@@ -14027,30 +14006,30 @@
         <v>877</v>
       </c>
       <c r="J330" s="11" t="n">
-        <v>43241.80488425926</v>
+        <v>43208.79854166666</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="B331" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B331" s="20" t="s">
         <v>878</v>
       </c>
       <c r="C331" s="12" t="n">
-        <v>218579.0</v>
+        <v>440659.0</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>109.0</v>
+        <v>108.0</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>460.0</v>
+        <v>317.0</v>
       </c>
       <c r="F331" s="4" t="n">
-        <v>381.074</v>
+        <v>258.521</v>
       </c>
       <c r="G331" s="4" t="n">
-        <v>1.80123</v>
+        <v>3.40628</v>
       </c>
       <c r="H331" s="2" t="n">
         <v>0.0</v>
@@ -14059,94 +14038,94 @@
         <v>879</v>
       </c>
       <c r="J331" s="10" t="n">
-        <v>44007.058333333334</v>
+        <v>42455.069768518515</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B332" s="25" t="s">
         <v>880</v>
       </c>
-      <c r="B332" s="21" t="s">
-        <v>881</v>
-      </c>
       <c r="C332" s="13" t="n">
-        <v>492342.0</v>
+        <v>436376.0</v>
       </c>
       <c r="D332" s="3" t="n">
         <v>108.0</v>
       </c>
       <c r="E332" s="3" t="n">
-        <v>345.0</v>
+        <v>445.0</v>
       </c>
       <c r="F332" s="5" t="n">
-        <v>269.483</v>
+        <v>354.335</v>
       </c>
       <c r="G332" s="5" t="n">
-        <v>3.68609</v>
+        <v>3.08893</v>
       </c>
       <c r="H332" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I332" s="9" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J332" s="11" t="n">
-        <v>43595.409895833334</v>
+        <v>42647.96318287037</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="8" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C333" s="12" t="n">
-        <v>454337.0</v>
+        <v>82212.0</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>108.0</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>346.0</v>
+        <v>329.0</v>
       </c>
       <c r="F333" s="4" t="n">
-        <v>273.041</v>
+        <v>271.495</v>
       </c>
       <c r="G333" s="4" t="n">
-        <v>3.90386</v>
+        <v>1.89469</v>
       </c>
       <c r="H333" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I333" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J333" s="10" t="n">
-        <v>43208.79854166666</v>
+        <v>40253.56662037037</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="B334" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="B334" s="23" t="s">
         <v>885</v>
       </c>
       <c r="C334" s="13" t="n">
-        <v>440659.0</v>
+        <v>354251.0</v>
       </c>
       <c r="D334" s="3" t="n">
-        <v>108.0</v>
+        <v>107.0</v>
       </c>
       <c r="E334" s="3" t="n">
-        <v>317.0</v>
+        <v>364.0</v>
       </c>
       <c r="F334" s="5" t="n">
-        <v>258.521</v>
+        <v>277.662</v>
       </c>
       <c r="G334" s="5" t="n">
-        <v>3.40628</v>
+        <v>1.38492</v>
       </c>
       <c r="H334" s="3" t="n">
         <v>0.0</v>
@@ -14155,94 +14134,94 @@
         <v>886</v>
       </c>
       <c r="J334" s="11" t="n">
-        <v>42455.069768518515</v>
+        <v>42870.262141203704</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="B335" s="24" t="s">
         <v>887</v>
       </c>
+      <c r="B335" s="22" t="s">
+        <v>888</v>
+      </c>
       <c r="C335" s="12" t="n">
-        <v>436376.0</v>
+        <v>477232.0</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>445.0</v>
+        <v>329.0</v>
       </c>
       <c r="F335" s="4" t="n">
-        <v>354.335</v>
+        <v>239.83</v>
       </c>
       <c r="G335" s="4" t="n">
-        <v>3.08893</v>
+        <v>3.81768</v>
       </c>
       <c r="H335" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I335" s="8" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J335" s="10" t="n">
-        <v>42647.96318287037</v>
+        <v>44146.61219907407</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="B336" s="23" t="s">
-        <v>889</v>
+        <v>887</v>
+      </c>
+      <c r="B336" s="25" t="s">
+        <v>890</v>
       </c>
       <c r="C336" s="13" t="n">
-        <v>82212.0</v>
+        <v>387605.0</v>
       </c>
       <c r="D336" s="3" t="n">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
       <c r="E336" s="3" t="n">
-        <v>329.0</v>
+        <v>431.0</v>
       </c>
       <c r="F336" s="5" t="n">
-        <v>271.495</v>
+        <v>350.929</v>
       </c>
       <c r="G336" s="5" t="n">
-        <v>1.89469</v>
+        <v>1.77874</v>
       </c>
       <c r="H336" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I336" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J336" s="11" t="n">
-        <v>40253.56662037037</v>
+        <v>43945.38835648148</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="B337" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="B337" s="26" t="s">
         <v>892</v>
       </c>
       <c r="C337" s="12" t="n">
-        <v>354251.0</v>
+        <v>147230.0</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>107.0</v>
+        <v>106.0</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>364.0</v>
+        <v>517.0</v>
       </c>
       <c r="F337" s="4" t="n">
-        <v>277.662</v>
+        <v>411.343</v>
       </c>
       <c r="G337" s="4" t="n">
-        <v>1.38492</v>
+        <v>2.29933</v>
       </c>
       <c r="H337" s="2" t="n">
         <v>0.0</v>
@@ -14251,62 +14230,62 @@
         <v>893</v>
       </c>
       <c r="J337" s="10" t="n">
-        <v>42870.262141203704</v>
+        <v>41358.97377314815</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B338" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="B338" s="23" t="s">
-        <v>895</v>
-      </c>
       <c r="C338" s="13" t="n">
-        <v>477232.0</v>
+        <v>136483.0</v>
       </c>
       <c r="D338" s="3" t="n">
         <v>106.0</v>
       </c>
       <c r="E338" s="3" t="n">
-        <v>329.0</v>
+        <v>414.0</v>
       </c>
       <c r="F338" s="5" t="n">
-        <v>239.83</v>
+        <v>309.868</v>
       </c>
       <c r="G338" s="5" t="n">
-        <v>3.81768</v>
+        <v>1.79685</v>
       </c>
       <c r="H338" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I338" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J338" s="11" t="n">
-        <v>44146.61219907407</v>
+        <v>43684.85697916667</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="B339" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="B339" s="26" t="s">
         <v>897</v>
       </c>
       <c r="C339" s="12" t="n">
-        <v>387605.0</v>
+        <v>486326.0</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>431.0</v>
+        <v>499.0</v>
       </c>
       <c r="F339" s="4" t="n">
-        <v>350.929</v>
+        <v>407.675</v>
       </c>
       <c r="G339" s="4" t="n">
-        <v>1.77874</v>
+        <v>1.90117</v>
       </c>
       <c r="H339" s="2" t="n">
         <v>0.0</v>
@@ -14315,30 +14294,30 @@
         <v>898</v>
       </c>
       <c r="J339" s="10" t="n">
-        <v>43945.38835648148</v>
+        <v>43427.390694444446</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="B340" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="B340" s="21" t="s">
         <v>899</v>
       </c>
       <c r="C340" s="13" t="n">
-        <v>147230.0</v>
+        <v>310598.0</v>
       </c>
       <c r="D340" s="3" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="E340" s="3" t="n">
-        <v>517.0</v>
+        <v>289.0</v>
       </c>
       <c r="F340" s="5" t="n">
-        <v>411.343</v>
+        <v>241.565</v>
       </c>
       <c r="G340" s="5" t="n">
-        <v>2.29933</v>
+        <v>3.41181</v>
       </c>
       <c r="H340" s="3" t="n">
         <v>0.0</v>
@@ -14347,30 +14326,30 @@
         <v>900</v>
       </c>
       <c r="J340" s="11" t="n">
-        <v>41358.97377314815</v>
+        <v>44177.86162037037</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="B341" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="B341" s="26" t="s">
         <v>901</v>
       </c>
       <c r="C341" s="12" t="n">
-        <v>136483.0</v>
+        <v>244339.0</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>414.0</v>
+        <v>534.0</v>
       </c>
       <c r="F341" s="4" t="n">
-        <v>309.868</v>
+        <v>447.952</v>
       </c>
       <c r="G341" s="4" t="n">
-        <v>1.79685</v>
+        <v>1.57698</v>
       </c>
       <c r="H341" s="2" t="n">
         <v>0.0</v>
@@ -14379,62 +14358,62 @@
         <v>902</v>
       </c>
       <c r="J341" s="10" t="n">
-        <v>43684.85697916667</v>
+        <v>43227.837743055556</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B342" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="B342" s="27" t="s">
-        <v>904</v>
-      </c>
       <c r="C342" s="13" t="n">
-        <v>486326.0</v>
+        <v>103164.0</v>
       </c>
       <c r="D342" s="3" t="n">
         <v>105.0</v>
       </c>
       <c r="E342" s="3" t="n">
-        <v>499.0</v>
+        <v>304.0</v>
       </c>
       <c r="F342" s="5" t="n">
-        <v>407.675</v>
+        <v>238.756</v>
       </c>
       <c r="G342" s="5" t="n">
-        <v>1.90117</v>
+        <v>3.95388</v>
       </c>
       <c r="H342" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I342" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J342" s="11" t="n">
-        <v>43427.390694444446</v>
+        <v>41708.40414351852</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="B343" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="B343" s="22" t="s">
         <v>906</v>
       </c>
       <c r="C343" s="12" t="n">
-        <v>310598.0</v>
+        <v>500224.0</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>289.0</v>
+        <v>381.0</v>
       </c>
       <c r="F343" s="4" t="n">
-        <v>241.565</v>
+        <v>299.063</v>
       </c>
       <c r="G343" s="4" t="n">
-        <v>3.41181</v>
+        <v>2.9603</v>
       </c>
       <c r="H343" s="2" t="n">
         <v>0.0</v>
@@ -14443,30 +14422,30 @@
         <v>907</v>
       </c>
       <c r="J343" s="10" t="n">
-        <v>44177.86162037037</v>
+        <v>43427.613703703704</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="B344" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="B344" s="29" t="s">
         <v>908</v>
       </c>
       <c r="C344" s="13" t="n">
-        <v>244339.0</v>
+        <v>427284.0</v>
       </c>
       <c r="D344" s="3" t="n">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="E344" s="3" t="n">
-        <v>534.0</v>
+        <v>531.0</v>
       </c>
       <c r="F344" s="5" t="n">
-        <v>447.952</v>
+        <v>421.738</v>
       </c>
       <c r="G344" s="5" t="n">
-        <v>1.57698</v>
+        <v>2.76868</v>
       </c>
       <c r="H344" s="3" t="n">
         <v>0.0</v>
@@ -14475,62 +14454,62 @@
         <v>909</v>
       </c>
       <c r="J344" s="11" t="n">
-        <v>43227.837743055556</v>
+        <v>42996.803923611114</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="B345" s="20" t="s">
         <v>910</v>
       </c>
+      <c r="B345" s="22" t="s">
+        <v>911</v>
+      </c>
       <c r="C345" s="12" t="n">
-        <v>103164.0</v>
+        <v>455829.0</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>105.0</v>
+        <v>102.0</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>304.0</v>
+        <v>319.0</v>
       </c>
       <c r="F345" s="4" t="n">
-        <v>238.756</v>
+        <v>249.644</v>
       </c>
       <c r="G345" s="4" t="n">
-        <v>3.95388</v>
+        <v>3.80578</v>
       </c>
       <c r="H345" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I345" s="8" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J345" s="10" t="n">
-        <v>41708.40414351852</v>
+        <v>43369.47002314815</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="B346" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="B346" s="27" t="s">
         <v>913</v>
       </c>
       <c r="C346" s="13" t="n">
-        <v>500224.0</v>
+        <v>408903.0</v>
       </c>
       <c r="D346" s="3" t="n">
-        <v>104.0</v>
+        <v>102.0</v>
       </c>
       <c r="E346" s="3" t="n">
-        <v>381.0</v>
+        <v>524.0</v>
       </c>
       <c r="F346" s="5" t="n">
-        <v>299.063</v>
+        <v>434.314</v>
       </c>
       <c r="G346" s="5" t="n">
-        <v>2.9603</v>
+        <v>1.66329</v>
       </c>
       <c r="H346" s="3" t="n">
         <v>0.0</v>
@@ -14539,30 +14518,30 @@
         <v>914</v>
       </c>
       <c r="J346" s="11" t="n">
-        <v>43427.613703703704</v>
+        <v>44098.15063657407</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="B347" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="B347" s="22" t="s">
         <v>915</v>
       </c>
       <c r="C347" s="12" t="n">
-        <v>427284.0</v>
+        <v>403619.0</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>104.0</v>
+        <v>102.0</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>531.0</v>
+        <v>334.0</v>
       </c>
       <c r="F347" s="4" t="n">
-        <v>421.738</v>
+        <v>274.736</v>
       </c>
       <c r="G347" s="4" t="n">
-        <v>2.76868</v>
+        <v>4.83421</v>
       </c>
       <c r="H347" s="2" t="n">
         <v>0.0</v>
@@ -14571,94 +14550,94 @@
         <v>916</v>
       </c>
       <c r="J347" s="10" t="n">
-        <v>42996.803923611114</v>
+        <v>43208.69700231482</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B348" s="21" t="s">
         <v>917</v>
       </c>
-      <c r="B348" s="23" t="s">
-        <v>918</v>
-      </c>
       <c r="C348" s="13" t="n">
-        <v>455829.0</v>
+        <v>258863.0</v>
       </c>
       <c r="D348" s="3" t="n">
         <v>102.0</v>
       </c>
       <c r="E348" s="3" t="n">
-        <v>319.0</v>
+        <v>285.0</v>
       </c>
       <c r="F348" s="5" t="n">
-        <v>249.644</v>
+        <v>241.02</v>
       </c>
       <c r="G348" s="5" t="n">
-        <v>3.80578</v>
+        <v>1.6982</v>
       </c>
       <c r="H348" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I348" s="9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J348" s="11" t="n">
-        <v>43369.47002314815</v>
+        <v>43427.26739583333</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="B349" s="26" t="s">
-        <v>920</v>
+        <v>910</v>
+      </c>
+      <c r="B349" s="24" t="s">
+        <v>919</v>
       </c>
       <c r="C349" s="12" t="n">
-        <v>408903.0</v>
+        <v>156481.0</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>102.0</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>524.0</v>
+        <v>479.0</v>
       </c>
       <c r="F349" s="4" t="n">
-        <v>434.314</v>
+        <v>409.272</v>
       </c>
       <c r="G349" s="4" t="n">
-        <v>1.66329</v>
+        <v>0.788706</v>
       </c>
       <c r="H349" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I349" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J349" s="10" t="n">
-        <v>44098.15063657407</v>
+        <v>43843.32203703704</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="B350" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="B350" s="19" t="s">
         <v>922</v>
       </c>
       <c r="C350" s="13" t="n">
-        <v>403619.0</v>
+        <v>462362.0</v>
       </c>
       <c r="D350" s="3" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="E350" s="3" t="n">
-        <v>334.0</v>
+        <v>265.0</v>
       </c>
       <c r="F350" s="5" t="n">
-        <v>274.736</v>
+        <v>226.466</v>
       </c>
       <c r="G350" s="5" t="n">
-        <v>4.83421</v>
+        <v>1.33887</v>
       </c>
       <c r="H350" s="3" t="n">
         <v>0.0</v>
@@ -14667,30 +14646,30 @@
         <v>923</v>
       </c>
       <c r="J350" s="11" t="n">
-        <v>43208.69700231482</v>
+        <v>44006.86576388889</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="B351" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="B351" s="24" t="s">
         <v>924</v>
       </c>
       <c r="C351" s="12" t="n">
-        <v>258863.0</v>
+        <v>422946.0</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>285.0</v>
+        <v>481.0</v>
       </c>
       <c r="F351" s="4" t="n">
-        <v>241.02</v>
+        <v>373.076</v>
       </c>
       <c r="G351" s="4" t="n">
-        <v>1.6982</v>
+        <v>2.49491</v>
       </c>
       <c r="H351" s="2" t="n">
         <v>0.0</v>
@@ -14699,30 +14678,30 @@
         <v>925</v>
       </c>
       <c r="J351" s="10" t="n">
-        <v>43427.26739583333</v>
+        <v>42703.81747685185</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="9" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B352" s="25" t="s">
         <v>926</v>
       </c>
       <c r="C352" s="13" t="n">
-        <v>156481.0</v>
+        <v>330396.0</v>
       </c>
       <c r="D352" s="3" t="n">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="E352" s="3" t="n">
         <v>479.0</v>
       </c>
       <c r="F352" s="5" t="n">
-        <v>409.272</v>
+        <v>373.475</v>
       </c>
       <c r="G352" s="5" t="n">
-        <v>0.788706</v>
+        <v>2.55531</v>
       </c>
       <c r="H352" s="3" t="n">
         <v>0.0</v>
@@ -14731,94 +14710,94 @@
         <v>927</v>
       </c>
       <c r="J352" s="11" t="n">
-        <v>43843.32203703704</v>
+        <v>41830.577581018515</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="B353" s="24" t="s">
         <v>928</v>
       </c>
-      <c r="B353" s="18" t="s">
-        <v>929</v>
-      </c>
       <c r="C353" s="12" t="n">
-        <v>462362.0</v>
+        <v>248619.0</v>
       </c>
       <c r="D353" s="2" t="n">
         <v>101.0</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>265.0</v>
+        <v>464.0</v>
       </c>
       <c r="F353" s="4" t="n">
-        <v>226.466</v>
+        <v>389.105</v>
       </c>
       <c r="G353" s="4" t="n">
-        <v>1.33887</v>
+        <v>1.08899</v>
       </c>
       <c r="H353" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I353" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J353" s="10" t="n">
-        <v>44006.86576388889</v>
+        <v>44191.86263888889</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="9" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B354" s="25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C354" s="13" t="n">
-        <v>422946.0</v>
+        <v>215004.0</v>
       </c>
       <c r="D354" s="3" t="n">
         <v>101.0</v>
       </c>
       <c r="E354" s="3" t="n">
-        <v>481.0</v>
+        <v>457.0</v>
       </c>
       <c r="F354" s="5" t="n">
-        <v>373.076</v>
+        <v>361.588</v>
       </c>
       <c r="G354" s="5" t="n">
-        <v>2.49491</v>
+        <v>2.19358</v>
       </c>
       <c r="H354" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I354" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J354" s="11" t="n">
-        <v>42703.81747685185</v>
+        <v>43208.81138888889</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="8" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B355" s="24" t="s">
         <v>933</v>
       </c>
       <c r="C355" s="12" t="n">
-        <v>330396.0</v>
+        <v>453955.0</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>479.0</v>
+        <v>440.0</v>
       </c>
       <c r="F355" s="4" t="n">
-        <v>373.475</v>
+        <v>362.048</v>
       </c>
       <c r="G355" s="4" t="n">
-        <v>2.55531</v>
+        <v>1.54307</v>
       </c>
       <c r="H355" s="2" t="n">
         <v>0.0</v>
@@ -14827,30 +14806,30 @@
         <v>934</v>
       </c>
       <c r="J355" s="10" t="n">
-        <v>41830.577581018515</v>
+        <v>42972.54087962963</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="9" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B356" s="25" t="s">
         <v>935</v>
       </c>
       <c r="C356" s="13" t="n">
-        <v>248619.0</v>
+        <v>446884.0</v>
       </c>
       <c r="D356" s="3" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="E356" s="3" t="n">
-        <v>464.0</v>
+        <v>431.0</v>
       </c>
       <c r="F356" s="5" t="n">
-        <v>389.105</v>
+        <v>300.674</v>
       </c>
       <c r="G356" s="5" t="n">
-        <v>1.08899</v>
+        <v>3.02472</v>
       </c>
       <c r="H356" s="3" t="n">
         <v>0.0</v>
@@ -14859,30 +14838,30 @@
         <v>936</v>
       </c>
       <c r="J356" s="11" t="n">
-        <v>44191.86263888889</v>
+        <v>42608.50269675926</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="B357" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="B357" s="20" t="s">
         <v>937</v>
       </c>
       <c r="C357" s="12" t="n">
-        <v>215004.0</v>
+        <v>366655.0</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>457.0</v>
+        <v>342.0</v>
       </c>
       <c r="F357" s="4" t="n">
-        <v>361.588</v>
+        <v>285.047</v>
       </c>
       <c r="G357" s="4" t="n">
-        <v>2.19358</v>
+        <v>2.60812</v>
       </c>
       <c r="H357" s="2" t="n">
         <v>0.0</v>
@@ -14891,198 +14870,102 @@
         <v>938</v>
       </c>
       <c r="J357" s="10" t="n">
-        <v>43208.81138888889</v>
+        <v>43116.34449074074</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="B358" s="21" t="s">
         <v>939</v>
       </c>
-      <c r="B358" s="25" t="s">
-        <v>940</v>
-      </c>
       <c r="C358" s="13" t="n">
-        <v>453955.0</v>
+        <v>317455.0</v>
       </c>
       <c r="D358" s="3" t="n">
         <v>100.0</v>
       </c>
       <c r="E358" s="3" t="n">
-        <v>440.0</v>
+        <v>305.0</v>
       </c>
       <c r="F358" s="5" t="n">
-        <v>362.048</v>
+        <v>239.94</v>
       </c>
       <c r="G358" s="5" t="n">
-        <v>1.54307</v>
+        <v>1.75337</v>
       </c>
       <c r="H358" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I358" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J358" s="11" t="n">
-        <v>42972.54087962963</v>
+        <v>41377.185694444444</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="B359" s="24" t="s">
-        <v>942</v>
+        <v>932</v>
+      </c>
+      <c r="B359" s="28" t="s">
+        <v>941</v>
       </c>
       <c r="C359" s="12" t="n">
-        <v>446884.0</v>
+        <v>166665.0</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>100.0</v>
       </c>
       <c r="E359" s="2" t="n">
-        <v>431.0</v>
+        <v>615.0</v>
       </c>
       <c r="F359" s="4" t="n">
-        <v>300.674</v>
+        <v>494.758</v>
       </c>
       <c r="G359" s="4" t="n">
-        <v>3.02472</v>
+        <v>2.12491</v>
       </c>
       <c r="H359" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J359" s="10" t="n">
-        <v>42608.50269675926</v>
+        <v>41672.47826388889</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="9" t="s">
-        <v>939</v>
-      </c>
-      <c r="B360" s="21" t="s">
-        <v>944</v>
+        <v>932</v>
+      </c>
+      <c r="B360" s="23" t="s">
+        <v>943</v>
       </c>
       <c r="C360" s="13" t="n">
-        <v>366655.0</v>
+        <v>65310.0</v>
       </c>
       <c r="D360" s="3" t="n">
         <v>100.0</v>
       </c>
       <c r="E360" s="3" t="n">
-        <v>342.0</v>
+        <v>289.0</v>
       </c>
       <c r="F360" s="5" t="n">
-        <v>285.047</v>
+        <v>252.933</v>
       </c>
       <c r="G360" s="5" t="n">
-        <v>2.60812</v>
+        <v>3.209</v>
       </c>
       <c r="H360" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="I360" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J360" s="11" t="n">
-        <v>43116.34449074074</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="B361" s="20" t="s">
-        <v>946</v>
-      </c>
-      <c r="C361" s="12" t="n">
-        <v>317455.0</v>
-      </c>
-      <c r="D361" s="2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E361" s="2" t="n">
-        <v>305.0</v>
-      </c>
-      <c r="F361" s="4" t="n">
-        <v>239.94</v>
-      </c>
-      <c r="G361" s="4" t="n">
-        <v>1.75337</v>
-      </c>
-      <c r="H361" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I361" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="J361" s="10" t="n">
-        <v>41377.185694444444</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="9" t="s">
-        <v>939</v>
-      </c>
-      <c r="B362" s="29" t="s">
-        <v>948</v>
-      </c>
-      <c r="C362" s="13" t="n">
-        <v>166665.0</v>
-      </c>
-      <c r="D362" s="3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E362" s="3" t="n">
-        <v>615.0</v>
-      </c>
-      <c r="F362" s="5" t="n">
-        <v>494.758</v>
-      </c>
-      <c r="G362" s="5" t="n">
-        <v>2.12491</v>
-      </c>
-      <c r="H362" s="3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I362" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="J362" s="11" t="n">
-        <v>41672.47826388889</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="B363" s="22" t="s">
-        <v>950</v>
-      </c>
-      <c r="C363" s="12" t="n">
-        <v>65310.0</v>
-      </c>
-      <c r="D363" s="2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E363" s="2" t="n">
-        <v>289.0</v>
-      </c>
-      <c r="F363" s="4" t="n">
-        <v>252.933</v>
-      </c>
-      <c r="G363" s="4" t="n">
-        <v>3.209</v>
-      </c>
-      <c r="H363" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I363" s="8" t="s">
-        <v>951</v>
-      </c>
-      <c r="J363" s="10" t="n">
         <v>40298.04384259259</v>
       </c>
     </row>
@@ -15447,9 +15330,6 @@
     <hyperlink ref="C358" r:id="rId357"/>
     <hyperlink ref="C359" r:id="rId358"/>
     <hyperlink ref="C360" r:id="rId359"/>
-    <hyperlink ref="C361" r:id="rId360"/>
-    <hyperlink ref="C362" r:id="rId361"/>
-    <hyperlink ref="C363" r:id="rId362"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
